--- a/AAII_Financials/Quarterly/TLGPY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLGPY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>TLGPY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,157 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7129200</v>
+        <v>7450700</v>
       </c>
       <c r="E8" s="3">
-        <v>6949800</v>
+        <v>7100100</v>
       </c>
       <c r="F8" s="3">
-        <v>6996800</v>
+        <v>6921500</v>
       </c>
       <c r="G8" s="3">
-        <v>7268100</v>
+        <v>6968300</v>
       </c>
       <c r="H8" s="3">
-        <v>7640000</v>
+        <v>7238500</v>
       </c>
       <c r="I8" s="3">
-        <v>8048900</v>
+        <v>7608800</v>
       </c>
       <c r="J8" s="3">
+        <v>8016100</v>
+      </c>
+      <c r="K8" s="3">
         <v>8385700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8328200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2699700</v>
+        <v>2781600</v>
       </c>
       <c r="E9" s="3">
-        <v>2744700</v>
+        <v>2688700</v>
       </c>
       <c r="F9" s="3">
-        <v>2719600</v>
+        <v>2733500</v>
       </c>
       <c r="G9" s="3">
-        <v>2784400</v>
+        <v>2708500</v>
       </c>
       <c r="H9" s="3">
-        <v>2967700</v>
+        <v>2773100</v>
       </c>
       <c r="I9" s="3">
-        <v>3058400</v>
+        <v>2955600</v>
       </c>
       <c r="J9" s="3">
+        <v>3045900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3147000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2899600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4429400</v>
+        <v>4669000</v>
       </c>
       <c r="E10" s="3">
-        <v>4205100</v>
+        <v>4411300</v>
       </c>
       <c r="F10" s="3">
-        <v>4277200</v>
+        <v>4187900</v>
       </c>
       <c r="G10" s="3">
-        <v>4483700</v>
+        <v>4259800</v>
       </c>
       <c r="H10" s="3">
-        <v>4672300</v>
+        <v>4465400</v>
       </c>
       <c r="I10" s="3">
-        <v>4990500</v>
+        <v>4653200</v>
       </c>
       <c r="J10" s="3">
+        <v>4970200</v>
+      </c>
+      <c r="K10" s="3">
         <v>5238700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5428600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +827,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +857,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,66 +889,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-104500</v>
+        <v>22400</v>
       </c>
       <c r="E14" s="3">
-        <v>178700</v>
+        <v>-104100</v>
       </c>
       <c r="F14" s="3">
-        <v>80100</v>
+        <v>177900</v>
       </c>
       <c r="G14" s="3">
-        <v>96600</v>
+        <v>79700</v>
       </c>
       <c r="H14" s="3">
-        <v>358000</v>
+        <v>96200</v>
       </c>
       <c r="I14" s="3">
-        <v>125700</v>
+        <v>356500</v>
       </c>
       <c r="J14" s="3">
+        <v>125200</v>
+      </c>
+      <c r="K14" s="3">
         <v>859500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1435200</v>
+        <v>1489300</v>
       </c>
       <c r="E15" s="3">
-        <v>1448500</v>
+        <v>1429400</v>
       </c>
       <c r="F15" s="3">
-        <v>1467000</v>
+        <v>1442600</v>
       </c>
       <c r="G15" s="3">
-        <v>1607300</v>
+        <v>1461000</v>
       </c>
       <c r="H15" s="3">
-        <v>1731000</v>
+        <v>1600700</v>
       </c>
       <c r="I15" s="3">
-        <v>1801100</v>
+        <v>1723900</v>
       </c>
       <c r="J15" s="3">
-        <v>1416700</v>
+        <v>1793800</v>
       </c>
       <c r="K15" s="3">
         <v>1416700</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>1416700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +966,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6310000</v>
+        <v>6575500</v>
       </c>
       <c r="E17" s="3">
-        <v>6355000</v>
+        <v>6284200</v>
       </c>
       <c r="F17" s="3">
-        <v>6460800</v>
+        <v>6329000</v>
       </c>
       <c r="G17" s="3">
-        <v>6795000</v>
+        <v>6434500</v>
       </c>
       <c r="H17" s="3">
-        <v>7423600</v>
+        <v>6767300</v>
       </c>
       <c r="I17" s="3">
-        <v>7518200</v>
+        <v>7393300</v>
       </c>
       <c r="J17" s="3">
+        <v>7487600</v>
+      </c>
+      <c r="K17" s="3">
         <v>8220300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>819200</v>
+        <v>875200</v>
       </c>
       <c r="E18" s="3">
-        <v>594900</v>
+        <v>815800</v>
       </c>
       <c r="F18" s="3">
-        <v>536000</v>
+        <v>592400</v>
       </c>
       <c r="G18" s="3">
-        <v>473100</v>
+        <v>533800</v>
       </c>
       <c r="H18" s="3">
-        <v>216400</v>
+        <v>471200</v>
       </c>
       <c r="I18" s="3">
-        <v>530700</v>
+        <v>215500</v>
       </c>
       <c r="J18" s="3">
+        <v>528500</v>
+      </c>
+      <c r="K18" s="3">
         <v>165400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>598800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,153 +1044,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>274600</v>
+        <v>203000</v>
       </c>
       <c r="E20" s="3">
-        <v>261400</v>
+        <v>273500</v>
       </c>
       <c r="F20" s="3">
-        <v>367900</v>
+        <v>260300</v>
       </c>
       <c r="G20" s="3">
-        <v>599500</v>
+        <v>366400</v>
       </c>
       <c r="H20" s="3">
-        <v>747700</v>
+        <v>597100</v>
       </c>
       <c r="I20" s="3">
-        <v>838400</v>
+        <v>744700</v>
       </c>
       <c r="J20" s="3">
+        <v>835000</v>
+      </c>
+      <c r="K20" s="3">
         <v>900600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>822500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1080600</v>
+        <v>2567500</v>
       </c>
       <c r="E21" s="3">
-        <v>2304700</v>
+        <v>1076100</v>
       </c>
       <c r="F21" s="3">
-        <v>763600</v>
+        <v>2295300</v>
       </c>
       <c r="G21" s="3">
-        <v>2679900</v>
+        <v>760500</v>
       </c>
       <c r="H21" s="3">
-        <v>894000</v>
+        <v>2669000</v>
       </c>
       <c r="I21" s="3">
-        <v>3170200</v>
+        <v>890300</v>
       </c>
       <c r="J21" s="3">
+        <v>3157300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1066000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2838000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>139600</v>
+        <v>189100</v>
       </c>
       <c r="E22" s="3">
-        <v>168700</v>
+        <v>139000</v>
       </c>
       <c r="F22" s="3">
-        <v>171400</v>
+        <v>168000</v>
       </c>
       <c r="G22" s="3">
-        <v>189900</v>
+        <v>170700</v>
       </c>
       <c r="H22" s="3">
-        <v>223000</v>
+        <v>189100</v>
       </c>
       <c r="I22" s="3">
-        <v>260000</v>
+        <v>222100</v>
       </c>
       <c r="J22" s="3">
+        <v>259000</v>
+      </c>
+      <c r="K22" s="3">
         <v>222300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>232300</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>954200</v>
+        <v>889000</v>
       </c>
       <c r="E23" s="3">
-        <v>687500</v>
+        <v>950300</v>
       </c>
       <c r="F23" s="3">
-        <v>732500</v>
+        <v>684700</v>
       </c>
       <c r="G23" s="3">
-        <v>882700</v>
+        <v>729500</v>
       </c>
       <c r="H23" s="3">
-        <v>741100</v>
+        <v>879100</v>
       </c>
       <c r="I23" s="3">
-        <v>1109000</v>
+        <v>738100</v>
       </c>
       <c r="J23" s="3">
+        <v>1104500</v>
+      </c>
+      <c r="K23" s="3">
         <v>843700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>245500</v>
+        <v>273500</v>
       </c>
       <c r="E24" s="3">
-        <v>195900</v>
+        <v>244500</v>
       </c>
       <c r="F24" s="3">
-        <v>218400</v>
+        <v>195100</v>
       </c>
       <c r="G24" s="3">
-        <v>138300</v>
+        <v>217500</v>
       </c>
       <c r="H24" s="3">
-        <v>285200</v>
+        <v>137700</v>
       </c>
       <c r="I24" s="3">
-        <v>348100</v>
+        <v>284000</v>
       </c>
       <c r="J24" s="3">
+        <v>346600</v>
+      </c>
+      <c r="K24" s="3">
         <v>234200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>376500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>708700</v>
+        <v>615500</v>
       </c>
       <c r="E26" s="3">
-        <v>491600</v>
+        <v>705800</v>
       </c>
       <c r="F26" s="3">
-        <v>514100</v>
+        <v>489600</v>
       </c>
       <c r="G26" s="3">
-        <v>744400</v>
+        <v>512000</v>
       </c>
       <c r="H26" s="3">
-        <v>455900</v>
+        <v>741400</v>
       </c>
       <c r="I26" s="3">
-        <v>761000</v>
+        <v>454100</v>
       </c>
       <c r="J26" s="3">
+        <v>757900</v>
+      </c>
+      <c r="K26" s="3">
         <v>609400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>812600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>655100</v>
+        <v>570000</v>
       </c>
       <c r="E27" s="3">
-        <v>461900</v>
+        <v>652400</v>
       </c>
       <c r="F27" s="3">
-        <v>502200</v>
+        <v>460000</v>
       </c>
       <c r="G27" s="3">
-        <v>726500</v>
+        <v>500200</v>
       </c>
       <c r="H27" s="3">
-        <v>450000</v>
+        <v>723600</v>
       </c>
       <c r="I27" s="3">
-        <v>753700</v>
+        <v>448100</v>
       </c>
       <c r="J27" s="3">
+        <v>750600</v>
+      </c>
+      <c r="K27" s="3">
         <v>609400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>815900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,37 +1330,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1426,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-274600</v>
+        <v>-203000</v>
       </c>
       <c r="E32" s="3">
-        <v>-261400</v>
+        <v>-273500</v>
       </c>
       <c r="F32" s="3">
-        <v>-367900</v>
+        <v>-260300</v>
       </c>
       <c r="G32" s="3">
-        <v>-599500</v>
+        <v>-366400</v>
       </c>
       <c r="H32" s="3">
-        <v>-747700</v>
+        <v>-597100</v>
       </c>
       <c r="I32" s="3">
-        <v>-838400</v>
+        <v>-744700</v>
       </c>
       <c r="J32" s="3">
+        <v>-835000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-822500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>655100</v>
+        <v>570000</v>
       </c>
       <c r="E33" s="3">
-        <v>461900</v>
+        <v>652400</v>
       </c>
       <c r="F33" s="3">
-        <v>502200</v>
+        <v>460000</v>
       </c>
       <c r="G33" s="3">
-        <v>726500</v>
+        <v>500200</v>
       </c>
       <c r="H33" s="3">
-        <v>450000</v>
+        <v>723600</v>
       </c>
       <c r="I33" s="3">
-        <v>753700</v>
+        <v>448100</v>
       </c>
       <c r="J33" s="3">
+        <v>750600</v>
+      </c>
+      <c r="K33" s="3">
         <v>609400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>815900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>655100</v>
+        <v>570000</v>
       </c>
       <c r="E35" s="3">
-        <v>461900</v>
+        <v>652400</v>
       </c>
       <c r="F35" s="3">
-        <v>502200</v>
+        <v>460000</v>
       </c>
       <c r="G35" s="3">
-        <v>726500</v>
+        <v>500200</v>
       </c>
       <c r="H35" s="3">
-        <v>450000</v>
+        <v>723600</v>
       </c>
       <c r="I35" s="3">
-        <v>753700</v>
+        <v>448100</v>
       </c>
       <c r="J35" s="3">
+        <v>750600</v>
+      </c>
+      <c r="K35" s="3">
         <v>609400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>815900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1621,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>688200</v>
+        <v>686700</v>
       </c>
       <c r="E41" s="3">
-        <v>1092500</v>
+        <v>685400</v>
       </c>
       <c r="F41" s="3">
-        <v>744400</v>
+        <v>1088000</v>
       </c>
       <c r="G41" s="3">
-        <v>856900</v>
+        <v>741400</v>
       </c>
       <c r="H41" s="3">
-        <v>330200</v>
+        <v>853400</v>
       </c>
       <c r="I41" s="3">
-        <v>498900</v>
+        <v>328800</v>
       </c>
       <c r="J41" s="3">
+        <v>496900</v>
+      </c>
+      <c r="K41" s="3">
         <v>399700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>358000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,211 +1683,235 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2707000</v>
+        <v>2706500</v>
       </c>
       <c r="E43" s="3">
-        <v>2842000</v>
+        <v>2696000</v>
       </c>
       <c r="F43" s="3">
-        <v>3031900</v>
+        <v>2830400</v>
       </c>
       <c r="G43" s="3">
-        <v>3039800</v>
+        <v>3019500</v>
       </c>
       <c r="H43" s="3">
-        <v>3389900</v>
+        <v>3027400</v>
       </c>
       <c r="I43" s="3">
-        <v>3509700</v>
+        <v>3376100</v>
       </c>
       <c r="J43" s="3">
+        <v>3495300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3572500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3624800</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>315000</v>
+        <v>479800</v>
       </c>
       <c r="E44" s="3">
-        <v>301700</v>
+        <v>313700</v>
       </c>
       <c r="F44" s="3">
-        <v>254800</v>
+        <v>300500</v>
       </c>
       <c r="G44" s="3">
-        <v>305000</v>
+        <v>253700</v>
       </c>
       <c r="H44" s="3">
-        <v>276600</v>
+        <v>303800</v>
       </c>
       <c r="I44" s="3">
-        <v>493000</v>
+        <v>275500</v>
       </c>
       <c r="J44" s="3">
+        <v>491000</v>
+      </c>
+      <c r="K44" s="3">
         <v>296400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>575000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>432100</v>
+        <v>516000</v>
       </c>
       <c r="E45" s="3">
-        <v>624600</v>
+        <v>430300</v>
       </c>
       <c r="F45" s="3">
-        <v>676300</v>
+        <v>622100</v>
       </c>
       <c r="G45" s="3">
-        <v>684900</v>
+        <v>673500</v>
       </c>
       <c r="H45" s="3">
-        <v>326900</v>
+        <v>682100</v>
       </c>
       <c r="I45" s="3">
-        <v>444000</v>
+        <v>325500</v>
       </c>
       <c r="J45" s="3">
+        <v>442200</v>
+      </c>
+      <c r="K45" s="3">
         <v>563800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>365900</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4142200</v>
+        <v>4388900</v>
       </c>
       <c r="E46" s="3">
-        <v>4860800</v>
+        <v>4125300</v>
       </c>
       <c r="F46" s="3">
-        <v>4707300</v>
+        <v>4841000</v>
       </c>
       <c r="G46" s="3">
-        <v>4886700</v>
+        <v>4688100</v>
       </c>
       <c r="H46" s="3">
-        <v>4323500</v>
+        <v>4866700</v>
       </c>
       <c r="I46" s="3">
-        <v>4945500</v>
+        <v>4305900</v>
       </c>
       <c r="J46" s="3">
+        <v>4925400</v>
+      </c>
+      <c r="K46" s="3">
         <v>4832400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4923700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1118300</v>
+        <v>1135500</v>
       </c>
       <c r="E47" s="3">
-        <v>1234700</v>
+        <v>1113700</v>
       </c>
       <c r="F47" s="3">
-        <v>1456400</v>
+        <v>1229700</v>
       </c>
       <c r="G47" s="3">
-        <v>1535800</v>
+        <v>1450500</v>
       </c>
       <c r="H47" s="3">
-        <v>1552300</v>
+        <v>1529500</v>
       </c>
       <c r="I47" s="3">
-        <v>1675400</v>
+        <v>1546000</v>
       </c>
       <c r="J47" s="3">
+        <v>1668600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1391600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1430600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15491100</v>
+        <v>15635400</v>
       </c>
       <c r="E48" s="3">
-        <v>15727900</v>
+        <v>15427800</v>
       </c>
       <c r="F48" s="3">
-        <v>15692200</v>
+        <v>15663800</v>
       </c>
       <c r="G48" s="3">
-        <v>15850400</v>
+        <v>15628200</v>
       </c>
       <c r="H48" s="3">
-        <v>16230800</v>
+        <v>15785700</v>
       </c>
       <c r="I48" s="3">
-        <v>16477700</v>
+        <v>16164600</v>
       </c>
       <c r="J48" s="3">
+        <v>16410400</v>
+      </c>
+      <c r="K48" s="3">
         <v>14777100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14940500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5396200</v>
+        <v>7107300</v>
       </c>
       <c r="E49" s="3">
-        <v>5181800</v>
+        <v>5374100</v>
       </c>
       <c r="F49" s="3">
-        <v>4718600</v>
+        <v>5160600</v>
       </c>
       <c r="G49" s="3">
-        <v>4706700</v>
+        <v>4699300</v>
       </c>
       <c r="H49" s="3">
-        <v>4904500</v>
+        <v>4687500</v>
       </c>
       <c r="I49" s="3">
-        <v>4762300</v>
+        <v>4884500</v>
       </c>
       <c r="J49" s="3">
+        <v>4742800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4770900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5176500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +1971,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1397500</v>
+        <v>1159200</v>
       </c>
       <c r="E52" s="3">
-        <v>1350500</v>
+        <v>1391800</v>
       </c>
       <c r="F52" s="3">
-        <v>1564300</v>
+        <v>1345000</v>
       </c>
       <c r="G52" s="3">
-        <v>1713800</v>
+        <v>1557900</v>
       </c>
       <c r="H52" s="3">
-        <v>2370200</v>
+        <v>1706800</v>
       </c>
       <c r="I52" s="3">
-        <v>2283500</v>
+        <v>2360500</v>
       </c>
       <c r="J52" s="3">
+        <v>2274200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2409200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2460200</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2035,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27545200</v>
+        <v>29426300</v>
       </c>
       <c r="E54" s="3">
-        <v>28355800</v>
+        <v>27432900</v>
       </c>
       <c r="F54" s="3">
-        <v>28138800</v>
+        <v>28240100</v>
       </c>
       <c r="G54" s="3">
-        <v>28693300</v>
+        <v>28024000</v>
       </c>
       <c r="H54" s="3">
-        <v>29381500</v>
+        <v>28576200</v>
       </c>
       <c r="I54" s="3">
-        <v>30144400</v>
+        <v>29261600</v>
       </c>
       <c r="J54" s="3">
+        <v>30021400</v>
+      </c>
+      <c r="K54" s="3">
         <v>28181100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28931500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2097,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>858200</v>
+        <v>2611000</v>
       </c>
       <c r="E57" s="3">
-        <v>2286200</v>
+        <v>854700</v>
       </c>
       <c r="F57" s="3">
-        <v>796700</v>
+        <v>2276800</v>
       </c>
       <c r="G57" s="3">
-        <v>712000</v>
+        <v>793400</v>
       </c>
       <c r="H57" s="3">
-        <v>653800</v>
+        <v>709100</v>
       </c>
       <c r="I57" s="3">
-        <v>665000</v>
+        <v>651100</v>
       </c>
       <c r="J57" s="3">
+        <v>662300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2996200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2931300</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2104200</v>
+        <v>2964200</v>
       </c>
       <c r="E58" s="3">
-        <v>3108000</v>
+        <v>2095600</v>
       </c>
       <c r="F58" s="3">
-        <v>2735500</v>
+        <v>3095300</v>
       </c>
       <c r="G58" s="3">
-        <v>2212100</v>
+        <v>2724300</v>
       </c>
       <c r="H58" s="3">
-        <v>2232600</v>
+        <v>2203000</v>
       </c>
       <c r="I58" s="3">
-        <v>2432400</v>
+        <v>2223500</v>
       </c>
       <c r="J58" s="3">
+        <v>2422500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1470300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>764300</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3561900</v>
+        <v>1802400</v>
       </c>
       <c r="E59" s="3">
-        <v>1658900</v>
+        <v>3547400</v>
       </c>
       <c r="F59" s="3">
-        <v>3365400</v>
+        <v>1652100</v>
       </c>
       <c r="G59" s="3">
-        <v>3442800</v>
+        <v>3351700</v>
       </c>
       <c r="H59" s="3">
-        <v>3792900</v>
+        <v>3428800</v>
       </c>
       <c r="I59" s="3">
-        <v>3559300</v>
+        <v>3777400</v>
       </c>
       <c r="J59" s="3">
+        <v>3544800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1854700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6524400</v>
+        <v>7377500</v>
       </c>
       <c r="E60" s="3">
-        <v>7053100</v>
+        <v>6497700</v>
       </c>
       <c r="F60" s="3">
-        <v>6897600</v>
+        <v>7024300</v>
       </c>
       <c r="G60" s="3">
-        <v>6366900</v>
+        <v>6869400</v>
       </c>
       <c r="H60" s="3">
-        <v>6679200</v>
+        <v>6340900</v>
       </c>
       <c r="I60" s="3">
-        <v>6656700</v>
+        <v>6651900</v>
       </c>
       <c r="J60" s="3">
+        <v>6629500</v>
+      </c>
+      <c r="K60" s="3">
         <v>6321200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7337600</v>
+        <v>7699800</v>
       </c>
       <c r="E61" s="3">
-        <v>7232400</v>
+        <v>7307700</v>
       </c>
       <c r="F61" s="3">
-        <v>8805200</v>
+        <v>7202900</v>
       </c>
       <c r="G61" s="3">
-        <v>10004900</v>
+        <v>8769300</v>
       </c>
       <c r="H61" s="3">
-        <v>10423800</v>
+        <v>9964100</v>
       </c>
       <c r="I61" s="3">
-        <v>11010700</v>
+        <v>10381200</v>
       </c>
       <c r="J61" s="3">
+        <v>10965800</v>
+      </c>
+      <c r="K61" s="3">
         <v>9946000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11333600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2542300</v>
+        <v>2752600</v>
       </c>
       <c r="E62" s="3">
-        <v>2517800</v>
+        <v>2531900</v>
       </c>
       <c r="F62" s="3">
-        <v>2328500</v>
+        <v>2507500</v>
       </c>
       <c r="G62" s="3">
-        <v>2273600</v>
+        <v>2319000</v>
       </c>
       <c r="H62" s="3">
-        <v>2255700</v>
+        <v>2264300</v>
       </c>
       <c r="I62" s="3">
-        <v>2291500</v>
+        <v>2246500</v>
       </c>
       <c r="J62" s="3">
+        <v>2282100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2299400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2667300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2383,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17388800</v>
+        <v>19431900</v>
       </c>
       <c r="E66" s="3">
-        <v>17762000</v>
+        <v>17317900</v>
       </c>
       <c r="F66" s="3">
-        <v>18485900</v>
+        <v>17689500</v>
       </c>
       <c r="G66" s="3">
-        <v>19098000</v>
+        <v>18410500</v>
       </c>
       <c r="H66" s="3">
-        <v>19804700</v>
+        <v>19020100</v>
       </c>
       <c r="I66" s="3">
-        <v>20410800</v>
+        <v>19723900</v>
       </c>
       <c r="J66" s="3">
+        <v>20327500</v>
+      </c>
+      <c r="K66" s="3">
         <v>18554100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19321000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2493,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2557,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8106500</v>
+        <v>7960100</v>
       </c>
       <c r="E72" s="3">
-        <v>8033700</v>
+        <v>8073400</v>
       </c>
       <c r="F72" s="3">
-        <v>6717600</v>
+        <v>8000900</v>
       </c>
       <c r="G72" s="3">
-        <v>6666600</v>
+        <v>6690200</v>
       </c>
       <c r="H72" s="3">
-        <v>6631600</v>
+        <v>6639400</v>
       </c>
       <c r="I72" s="3">
-        <v>6796300</v>
+        <v>6604500</v>
       </c>
       <c r="J72" s="3">
+        <v>6768600</v>
+      </c>
+      <c r="K72" s="3">
         <v>6684500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6675200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2685,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10156400</v>
+        <v>9994400</v>
       </c>
       <c r="E76" s="3">
-        <v>10593800</v>
+        <v>10115000</v>
       </c>
       <c r="F76" s="3">
-        <v>9652900</v>
+        <v>10550600</v>
       </c>
       <c r="G76" s="3">
-        <v>9595300</v>
+        <v>9613500</v>
       </c>
       <c r="H76" s="3">
-        <v>9576800</v>
+        <v>9556200</v>
       </c>
       <c r="I76" s="3">
-        <v>9733600</v>
+        <v>9537700</v>
       </c>
       <c r="J76" s="3">
+        <v>9693900</v>
+      </c>
+      <c r="K76" s="3">
         <v>9627100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9610500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>655100</v>
+        <v>570000</v>
       </c>
       <c r="E81" s="3">
-        <v>461900</v>
+        <v>652400</v>
       </c>
       <c r="F81" s="3">
-        <v>502200</v>
+        <v>460000</v>
       </c>
       <c r="G81" s="3">
-        <v>726500</v>
+        <v>500200</v>
       </c>
       <c r="H81" s="3">
-        <v>450000</v>
+        <v>723600</v>
       </c>
       <c r="I81" s="3">
-        <v>753700</v>
+        <v>448100</v>
       </c>
       <c r="J81" s="3">
+        <v>750600</v>
+      </c>
+      <c r="K81" s="3">
         <v>609400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>815900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +2834,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2665,8 +2864,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3024,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2648800</v>
+        <v>1888700</v>
       </c>
       <c r="E89" s="3">
-        <v>2147900</v>
+        <v>2638000</v>
       </c>
       <c r="F89" s="3">
-        <v>2506500</v>
+        <v>2139100</v>
       </c>
       <c r="G89" s="3">
-        <v>2278200</v>
+        <v>2496300</v>
       </c>
       <c r="H89" s="3">
-        <v>2830100</v>
+        <v>2268900</v>
       </c>
       <c r="I89" s="3">
-        <v>1808400</v>
+        <v>2818500</v>
       </c>
       <c r="J89" s="3">
+        <v>1801000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2558100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1864000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3072,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-639200</v>
+        <v>-747300</v>
       </c>
       <c r="E91" s="3">
-        <v>-800700</v>
+        <v>-636600</v>
       </c>
       <c r="F91" s="3">
-        <v>-650500</v>
+        <v>-797400</v>
       </c>
       <c r="G91" s="3">
-        <v>-725200</v>
+        <v>-647800</v>
       </c>
       <c r="H91" s="3">
-        <v>-769600</v>
+        <v>-722300</v>
       </c>
       <c r="I91" s="3">
-        <v>-779500</v>
+        <v>-766400</v>
       </c>
       <c r="J91" s="3">
+        <v>-776300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-926400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1214200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3166,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-974700</v>
+        <v>-2745400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1271800</v>
+        <v>-970700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1036900</v>
+        <v>-1266600</v>
       </c>
       <c r="G94" s="3">
-        <v>-514100</v>
+        <v>-1032700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1166600</v>
+        <v>-512000</v>
       </c>
       <c r="I94" s="3">
-        <v>-802600</v>
+        <v>-1161800</v>
       </c>
       <c r="J94" s="3">
+        <v>-799400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-942900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1449100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,37 +3214,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-620000</v>
+        <v>-647100</v>
       </c>
       <c r="E96" s="3">
+        <v>-617500</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-626700</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-626700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-626700</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-627400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-626700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-629300</v>
       </c>
-      <c r="F96" s="3">
-        <v>-629300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-629300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-629900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-629300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-629300</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-865500</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3340,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2088300</v>
+        <v>855400</v>
       </c>
       <c r="E100" s="3">
-        <v>-539300</v>
+        <v>-2079800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1588100</v>
+        <v>-537100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1214900</v>
+        <v>-1581600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1819000</v>
+        <v>-1209900</v>
       </c>
       <c r="I100" s="3">
-        <v>-919100</v>
+        <v>-1811600</v>
       </c>
       <c r="J100" s="3">
+        <v>-915400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1574200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-469100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>11900</v>
       </c>
-      <c r="E101" s="3">
-        <v>9300</v>
-      </c>
       <c r="F101" s="3">
-        <v>6000</v>
+        <v>9200</v>
       </c>
       <c r="G101" s="3">
-        <v>-22500</v>
+        <v>5900</v>
       </c>
       <c r="H101" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-402300</v>
+        <v>1300</v>
       </c>
       <c r="E102" s="3">
-        <v>346100</v>
+        <v>-400700</v>
       </c>
       <c r="F102" s="3">
-        <v>-112500</v>
+        <v>344700</v>
       </c>
       <c r="G102" s="3">
-        <v>526700</v>
+        <v>-112000</v>
       </c>
       <c r="H102" s="3">
-        <v>-157500</v>
+        <v>524600</v>
       </c>
       <c r="I102" s="3">
-        <v>88000</v>
+        <v>-156800</v>
       </c>
       <c r="J102" s="3">
+        <v>87600</v>
+      </c>
+      <c r="K102" s="3">
         <v>41700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-52300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLGPY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLGPY_QTR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7450700</v>
+        <v>7481200</v>
       </c>
       <c r="E8" s="3">
-        <v>7100100</v>
+        <v>7129200</v>
       </c>
       <c r="F8" s="3">
-        <v>6921500</v>
+        <v>6949800</v>
       </c>
       <c r="G8" s="3">
-        <v>6968300</v>
+        <v>6996800</v>
       </c>
       <c r="H8" s="3">
-        <v>7238500</v>
+        <v>7268100</v>
       </c>
       <c r="I8" s="3">
-        <v>7608800</v>
+        <v>7640000</v>
       </c>
       <c r="J8" s="3">
-        <v>8016100</v>
+        <v>8048900</v>
       </c>
       <c r="K8" s="3">
         <v>8385700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2781600</v>
+        <v>2793000</v>
       </c>
       <c r="E9" s="3">
-        <v>2688700</v>
+        <v>2699700</v>
       </c>
       <c r="F9" s="3">
-        <v>2733500</v>
+        <v>2744700</v>
       </c>
       <c r="G9" s="3">
-        <v>2708500</v>
+        <v>2719600</v>
       </c>
       <c r="H9" s="3">
-        <v>2773100</v>
+        <v>2784400</v>
       </c>
       <c r="I9" s="3">
-        <v>2955600</v>
+        <v>2967700</v>
       </c>
       <c r="J9" s="3">
-        <v>3045900</v>
+        <v>3058400</v>
       </c>
       <c r="K9" s="3">
         <v>3147000</v>
@@ -788,25 +788,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4669000</v>
+        <v>4688100</v>
       </c>
       <c r="E10" s="3">
-        <v>4411300</v>
+        <v>4429400</v>
       </c>
       <c r="F10" s="3">
-        <v>4187900</v>
+        <v>4205100</v>
       </c>
       <c r="G10" s="3">
-        <v>4259800</v>
+        <v>4277200</v>
       </c>
       <c r="H10" s="3">
-        <v>4465400</v>
+        <v>4483700</v>
       </c>
       <c r="I10" s="3">
-        <v>4653200</v>
+        <v>4672300</v>
       </c>
       <c r="J10" s="3">
-        <v>4970200</v>
+        <v>4990500</v>
       </c>
       <c r="K10" s="3">
         <v>5238700</v>
@@ -898,25 +898,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="E14" s="3">
-        <v>-104100</v>
+        <v>-104500</v>
       </c>
       <c r="F14" s="3">
-        <v>177900</v>
+        <v>178700</v>
       </c>
       <c r="G14" s="3">
-        <v>79700</v>
+        <v>80100</v>
       </c>
       <c r="H14" s="3">
-        <v>96200</v>
+        <v>96600</v>
       </c>
       <c r="I14" s="3">
-        <v>356500</v>
+        <v>358000</v>
       </c>
       <c r="J14" s="3">
-        <v>125200</v>
+        <v>125700</v>
       </c>
       <c r="K14" s="3">
         <v>859500</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1489300</v>
+        <v>1495400</v>
       </c>
       <c r="E15" s="3">
-        <v>1429400</v>
+        <v>1435200</v>
       </c>
       <c r="F15" s="3">
-        <v>1442600</v>
+        <v>1448500</v>
       </c>
       <c r="G15" s="3">
-        <v>1461000</v>
+        <v>1467000</v>
       </c>
       <c r="H15" s="3">
-        <v>1600700</v>
+        <v>1607300</v>
       </c>
       <c r="I15" s="3">
-        <v>1723900</v>
+        <v>1731000</v>
       </c>
       <c r="J15" s="3">
-        <v>1793800</v>
+        <v>1801100</v>
       </c>
       <c r="K15" s="3">
         <v>1416700</v>
@@ -973,25 +973,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6575500</v>
+        <v>6602400</v>
       </c>
       <c r="E17" s="3">
-        <v>6284200</v>
+        <v>6310000</v>
       </c>
       <c r="F17" s="3">
-        <v>6329000</v>
+        <v>6355000</v>
       </c>
       <c r="G17" s="3">
-        <v>6434500</v>
+        <v>6460800</v>
       </c>
       <c r="H17" s="3">
-        <v>6767300</v>
+        <v>6795000</v>
       </c>
       <c r="I17" s="3">
-        <v>7393300</v>
+        <v>7423600</v>
       </c>
       <c r="J17" s="3">
-        <v>7487600</v>
+        <v>7518200</v>
       </c>
       <c r="K17" s="3">
         <v>8220300</v>
@@ -1005,25 +1005,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>875200</v>
+        <v>878700</v>
       </c>
       <c r="E18" s="3">
-        <v>815800</v>
+        <v>819200</v>
       </c>
       <c r="F18" s="3">
-        <v>592400</v>
+        <v>594900</v>
       </c>
       <c r="G18" s="3">
-        <v>533800</v>
+        <v>536000</v>
       </c>
       <c r="H18" s="3">
-        <v>471200</v>
+        <v>473100</v>
       </c>
       <c r="I18" s="3">
-        <v>215500</v>
+        <v>216400</v>
       </c>
       <c r="J18" s="3">
-        <v>528500</v>
+        <v>530700</v>
       </c>
       <c r="K18" s="3">
         <v>165400</v>
@@ -1051,25 +1051,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>203000</v>
+        <v>203800</v>
       </c>
       <c r="E20" s="3">
-        <v>273500</v>
+        <v>274600</v>
       </c>
       <c r="F20" s="3">
-        <v>260300</v>
+        <v>261400</v>
       </c>
       <c r="G20" s="3">
-        <v>366400</v>
+        <v>367900</v>
       </c>
       <c r="H20" s="3">
-        <v>597100</v>
+        <v>599500</v>
       </c>
       <c r="I20" s="3">
-        <v>744700</v>
+        <v>747700</v>
       </c>
       <c r="J20" s="3">
-        <v>835000</v>
+        <v>838400</v>
       </c>
       <c r="K20" s="3">
         <v>900600</v>
@@ -1083,25 +1083,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2567500</v>
+        <v>2578000</v>
       </c>
       <c r="E21" s="3">
-        <v>1076100</v>
+        <v>1080600</v>
       </c>
       <c r="F21" s="3">
-        <v>2295300</v>
+        <v>2304700</v>
       </c>
       <c r="G21" s="3">
-        <v>760500</v>
+        <v>763600</v>
       </c>
       <c r="H21" s="3">
-        <v>2669000</v>
+        <v>2679900</v>
       </c>
       <c r="I21" s="3">
-        <v>890300</v>
+        <v>894000</v>
       </c>
       <c r="J21" s="3">
-        <v>3157300</v>
+        <v>3170200</v>
       </c>
       <c r="K21" s="3">
         <v>1066000</v>
@@ -1115,25 +1115,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>189100</v>
+        <v>189900</v>
       </c>
       <c r="E22" s="3">
-        <v>139000</v>
+        <v>139600</v>
       </c>
       <c r="F22" s="3">
-        <v>168000</v>
+        <v>168700</v>
       </c>
       <c r="G22" s="3">
-        <v>170700</v>
+        <v>171400</v>
       </c>
       <c r="H22" s="3">
-        <v>189100</v>
+        <v>189900</v>
       </c>
       <c r="I22" s="3">
-        <v>222100</v>
+        <v>223000</v>
       </c>
       <c r="J22" s="3">
-        <v>259000</v>
+        <v>260000</v>
       </c>
       <c r="K22" s="3">
         <v>222300</v>
@@ -1147,25 +1147,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>889000</v>
+        <v>892600</v>
       </c>
       <c r="E23" s="3">
-        <v>950300</v>
+        <v>954200</v>
       </c>
       <c r="F23" s="3">
-        <v>684700</v>
+        <v>687500</v>
       </c>
       <c r="G23" s="3">
-        <v>729500</v>
+        <v>732500</v>
       </c>
       <c r="H23" s="3">
-        <v>879100</v>
+        <v>882700</v>
       </c>
       <c r="I23" s="3">
-        <v>738100</v>
+        <v>741100</v>
       </c>
       <c r="J23" s="3">
-        <v>1104500</v>
+        <v>1109000</v>
       </c>
       <c r="K23" s="3">
         <v>843700</v>
@@ -1179,25 +1179,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>273500</v>
+        <v>274600</v>
       </c>
       <c r="E24" s="3">
-        <v>244500</v>
+        <v>245500</v>
       </c>
       <c r="F24" s="3">
-        <v>195100</v>
+        <v>195900</v>
       </c>
       <c r="G24" s="3">
-        <v>217500</v>
+        <v>218400</v>
       </c>
       <c r="H24" s="3">
-        <v>137700</v>
+        <v>138300</v>
       </c>
       <c r="I24" s="3">
-        <v>284000</v>
+        <v>285200</v>
       </c>
       <c r="J24" s="3">
-        <v>346600</v>
+        <v>348100</v>
       </c>
       <c r="K24" s="3">
         <v>234200</v>
@@ -1243,25 +1243,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>615500</v>
+        <v>618000</v>
       </c>
       <c r="E26" s="3">
-        <v>705800</v>
+        <v>708700</v>
       </c>
       <c r="F26" s="3">
-        <v>489600</v>
+        <v>491600</v>
       </c>
       <c r="G26" s="3">
-        <v>512000</v>
+        <v>514100</v>
       </c>
       <c r="H26" s="3">
-        <v>741400</v>
+        <v>744400</v>
       </c>
       <c r="I26" s="3">
-        <v>454100</v>
+        <v>455900</v>
       </c>
       <c r="J26" s="3">
-        <v>757900</v>
+        <v>761000</v>
       </c>
       <c r="K26" s="3">
         <v>609400</v>
@@ -1275,25 +1275,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>570000</v>
+        <v>572400</v>
       </c>
       <c r="E27" s="3">
-        <v>652400</v>
+        <v>655100</v>
       </c>
       <c r="F27" s="3">
-        <v>460000</v>
+        <v>461900</v>
       </c>
       <c r="G27" s="3">
-        <v>500200</v>
+        <v>502200</v>
       </c>
       <c r="H27" s="3">
-        <v>723600</v>
+        <v>726500</v>
       </c>
       <c r="I27" s="3">
-        <v>448100</v>
+        <v>450000</v>
       </c>
       <c r="J27" s="3">
-        <v>750600</v>
+        <v>753700</v>
       </c>
       <c r="K27" s="3">
         <v>609400</v>
@@ -1435,25 +1435,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-203000</v>
+        <v>-203800</v>
       </c>
       <c r="E32" s="3">
-        <v>-273500</v>
+        <v>-274600</v>
       </c>
       <c r="F32" s="3">
-        <v>-260300</v>
+        <v>-261400</v>
       </c>
       <c r="G32" s="3">
-        <v>-366400</v>
+        <v>-367900</v>
       </c>
       <c r="H32" s="3">
-        <v>-597100</v>
+        <v>-599500</v>
       </c>
       <c r="I32" s="3">
-        <v>-744700</v>
+        <v>-747700</v>
       </c>
       <c r="J32" s="3">
-        <v>-835000</v>
+        <v>-838400</v>
       </c>
       <c r="K32" s="3">
         <v>-900600</v>
@@ -1467,25 +1467,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>570000</v>
+        <v>572400</v>
       </c>
       <c r="E33" s="3">
-        <v>652400</v>
+        <v>655100</v>
       </c>
       <c r="F33" s="3">
-        <v>460000</v>
+        <v>461900</v>
       </c>
       <c r="G33" s="3">
-        <v>500200</v>
+        <v>502200</v>
       </c>
       <c r="H33" s="3">
-        <v>723600</v>
+        <v>726500</v>
       </c>
       <c r="I33" s="3">
-        <v>448100</v>
+        <v>450000</v>
       </c>
       <c r="J33" s="3">
-        <v>750600</v>
+        <v>753700</v>
       </c>
       <c r="K33" s="3">
         <v>609400</v>
@@ -1531,25 +1531,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>570000</v>
+        <v>572400</v>
       </c>
       <c r="E35" s="3">
-        <v>652400</v>
+        <v>655100</v>
       </c>
       <c r="F35" s="3">
-        <v>460000</v>
+        <v>461900</v>
       </c>
       <c r="G35" s="3">
-        <v>500200</v>
+        <v>502200</v>
       </c>
       <c r="H35" s="3">
-        <v>723600</v>
+        <v>726500</v>
       </c>
       <c r="I35" s="3">
-        <v>448100</v>
+        <v>450000</v>
       </c>
       <c r="J35" s="3">
-        <v>750600</v>
+        <v>753700</v>
       </c>
       <c r="K35" s="3">
         <v>609400</v>
@@ -1628,25 +1628,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>686700</v>
+        <v>689500</v>
       </c>
       <c r="E41" s="3">
-        <v>685400</v>
+        <v>688200</v>
       </c>
       <c r="F41" s="3">
-        <v>1088000</v>
+        <v>1092500</v>
       </c>
       <c r="G41" s="3">
-        <v>741400</v>
+        <v>744400</v>
       </c>
       <c r="H41" s="3">
-        <v>853400</v>
+        <v>856900</v>
       </c>
       <c r="I41" s="3">
-        <v>328800</v>
+        <v>330200</v>
       </c>
       <c r="J41" s="3">
-        <v>496900</v>
+        <v>498900</v>
       </c>
       <c r="K41" s="3">
         <v>399700</v>
@@ -1692,25 +1692,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2706500</v>
+        <v>2717600</v>
       </c>
       <c r="E43" s="3">
-        <v>2696000</v>
+        <v>2707000</v>
       </c>
       <c r="F43" s="3">
-        <v>2830400</v>
+        <v>2842000</v>
       </c>
       <c r="G43" s="3">
-        <v>3019500</v>
+        <v>3031900</v>
       </c>
       <c r="H43" s="3">
-        <v>3027400</v>
+        <v>3039800</v>
       </c>
       <c r="I43" s="3">
-        <v>3376100</v>
+        <v>3389900</v>
       </c>
       <c r="J43" s="3">
-        <v>3495300</v>
+        <v>3509700</v>
       </c>
       <c r="K43" s="3">
         <v>3572500</v>
@@ -1724,25 +1724,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>479800</v>
+        <v>481700</v>
       </c>
       <c r="E44" s="3">
-        <v>313700</v>
+        <v>315000</v>
       </c>
       <c r="F44" s="3">
-        <v>300500</v>
+        <v>301700</v>
       </c>
       <c r="G44" s="3">
-        <v>253700</v>
+        <v>254800</v>
       </c>
       <c r="H44" s="3">
-        <v>303800</v>
+        <v>305000</v>
       </c>
       <c r="I44" s="3">
-        <v>275500</v>
+        <v>276600</v>
       </c>
       <c r="J44" s="3">
-        <v>491000</v>
+        <v>493000</v>
       </c>
       <c r="K44" s="3">
         <v>296400</v>
@@ -1756,25 +1756,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>516000</v>
+        <v>518100</v>
       </c>
       <c r="E45" s="3">
-        <v>430300</v>
+        <v>432100</v>
       </c>
       <c r="F45" s="3">
-        <v>622100</v>
+        <v>624600</v>
       </c>
       <c r="G45" s="3">
-        <v>673500</v>
+        <v>676300</v>
       </c>
       <c r="H45" s="3">
-        <v>682100</v>
+        <v>684900</v>
       </c>
       <c r="I45" s="3">
-        <v>325500</v>
+        <v>326900</v>
       </c>
       <c r="J45" s="3">
-        <v>442200</v>
+        <v>444000</v>
       </c>
       <c r="K45" s="3">
         <v>563800</v>
@@ -1788,25 +1788,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4388900</v>
+        <v>4406900</v>
       </c>
       <c r="E46" s="3">
-        <v>4125300</v>
+        <v>4142200</v>
       </c>
       <c r="F46" s="3">
-        <v>4841000</v>
+        <v>4860800</v>
       </c>
       <c r="G46" s="3">
-        <v>4688100</v>
+        <v>4707300</v>
       </c>
       <c r="H46" s="3">
-        <v>4866700</v>
+        <v>4886700</v>
       </c>
       <c r="I46" s="3">
-        <v>4305900</v>
+        <v>4323500</v>
       </c>
       <c r="J46" s="3">
-        <v>4925400</v>
+        <v>4945500</v>
       </c>
       <c r="K46" s="3">
         <v>4832400</v>
@@ -1820,25 +1820,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1135500</v>
+        <v>1140100</v>
       </c>
       <c r="E47" s="3">
-        <v>1113700</v>
+        <v>1118300</v>
       </c>
       <c r="F47" s="3">
-        <v>1229700</v>
+        <v>1234700</v>
       </c>
       <c r="G47" s="3">
-        <v>1450500</v>
+        <v>1456400</v>
       </c>
       <c r="H47" s="3">
-        <v>1529500</v>
+        <v>1535800</v>
       </c>
       <c r="I47" s="3">
-        <v>1546000</v>
+        <v>1552300</v>
       </c>
       <c r="J47" s="3">
-        <v>1668600</v>
+        <v>1675400</v>
       </c>
       <c r="K47" s="3">
         <v>1391600</v>
@@ -1852,25 +1852,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15635400</v>
+        <v>15699500</v>
       </c>
       <c r="E48" s="3">
-        <v>15427800</v>
+        <v>15491100</v>
       </c>
       <c r="F48" s="3">
-        <v>15663800</v>
+        <v>15727900</v>
       </c>
       <c r="G48" s="3">
-        <v>15628200</v>
+        <v>15692200</v>
       </c>
       <c r="H48" s="3">
-        <v>15785700</v>
+        <v>15850400</v>
       </c>
       <c r="I48" s="3">
-        <v>16164600</v>
+        <v>16230800</v>
       </c>
       <c r="J48" s="3">
-        <v>16410400</v>
+        <v>16477700</v>
       </c>
       <c r="K48" s="3">
         <v>14777100</v>
@@ -1884,25 +1884,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7107300</v>
+        <v>7136400</v>
       </c>
       <c r="E49" s="3">
-        <v>5374100</v>
+        <v>5396200</v>
       </c>
       <c r="F49" s="3">
-        <v>5160600</v>
+        <v>5181800</v>
       </c>
       <c r="G49" s="3">
-        <v>4699300</v>
+        <v>4718600</v>
       </c>
       <c r="H49" s="3">
-        <v>4687500</v>
+        <v>4706700</v>
       </c>
       <c r="I49" s="3">
-        <v>4884500</v>
+        <v>4904500</v>
       </c>
       <c r="J49" s="3">
-        <v>4742800</v>
+        <v>4762300</v>
       </c>
       <c r="K49" s="3">
         <v>4770900</v>
@@ -1980,25 +1980,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1159200</v>
+        <v>1163900</v>
       </c>
       <c r="E52" s="3">
-        <v>1391800</v>
+        <v>1397500</v>
       </c>
       <c r="F52" s="3">
-        <v>1345000</v>
+        <v>1350500</v>
       </c>
       <c r="G52" s="3">
-        <v>1557900</v>
+        <v>1564300</v>
       </c>
       <c r="H52" s="3">
-        <v>1706800</v>
+        <v>1713800</v>
       </c>
       <c r="I52" s="3">
-        <v>2360500</v>
+        <v>2370200</v>
       </c>
       <c r="J52" s="3">
-        <v>2274200</v>
+        <v>2283500</v>
       </c>
       <c r="K52" s="3">
         <v>2409200</v>
@@ -2044,25 +2044,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29426300</v>
+        <v>29546900</v>
       </c>
       <c r="E54" s="3">
-        <v>27432900</v>
+        <v>27545200</v>
       </c>
       <c r="F54" s="3">
-        <v>28240100</v>
+        <v>28355800</v>
       </c>
       <c r="G54" s="3">
-        <v>28024000</v>
+        <v>28138800</v>
       </c>
       <c r="H54" s="3">
-        <v>28576200</v>
+        <v>28693300</v>
       </c>
       <c r="I54" s="3">
-        <v>29261600</v>
+        <v>29381500</v>
       </c>
       <c r="J54" s="3">
-        <v>30021400</v>
+        <v>30144400</v>
       </c>
       <c r="K54" s="3">
         <v>28181100</v>
@@ -2104,25 +2104,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2611000</v>
+        <v>2621700</v>
       </c>
       <c r="E57" s="3">
-        <v>854700</v>
+        <v>858200</v>
       </c>
       <c r="F57" s="3">
-        <v>2276800</v>
+        <v>2286200</v>
       </c>
       <c r="G57" s="3">
-        <v>793400</v>
+        <v>796700</v>
       </c>
       <c r="H57" s="3">
-        <v>709100</v>
+        <v>712000</v>
       </c>
       <c r="I57" s="3">
-        <v>651100</v>
+        <v>653800</v>
       </c>
       <c r="J57" s="3">
-        <v>662300</v>
+        <v>665000</v>
       </c>
       <c r="K57" s="3">
         <v>2996200</v>
@@ -2136,25 +2136,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2964200</v>
+        <v>2976300</v>
       </c>
       <c r="E58" s="3">
-        <v>2095600</v>
+        <v>2104200</v>
       </c>
       <c r="F58" s="3">
-        <v>3095300</v>
+        <v>3108000</v>
       </c>
       <c r="G58" s="3">
-        <v>2724300</v>
+        <v>2735500</v>
       </c>
       <c r="H58" s="3">
-        <v>2203000</v>
+        <v>2212100</v>
       </c>
       <c r="I58" s="3">
-        <v>2223500</v>
+        <v>2232600</v>
       </c>
       <c r="J58" s="3">
-        <v>2422500</v>
+        <v>2432400</v>
       </c>
       <c r="K58" s="3">
         <v>1470300</v>
@@ -2168,25 +2168,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1802400</v>
+        <v>1809700</v>
       </c>
       <c r="E59" s="3">
-        <v>3547400</v>
+        <v>3561900</v>
       </c>
       <c r="F59" s="3">
-        <v>1652100</v>
+        <v>1658900</v>
       </c>
       <c r="G59" s="3">
-        <v>3351700</v>
+        <v>3365400</v>
       </c>
       <c r="H59" s="3">
-        <v>3428800</v>
+        <v>3442800</v>
       </c>
       <c r="I59" s="3">
-        <v>3777400</v>
+        <v>3792900</v>
       </c>
       <c r="J59" s="3">
-        <v>3544800</v>
+        <v>3559300</v>
       </c>
       <c r="K59" s="3">
         <v>1854700</v>
@@ -2200,25 +2200,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7377500</v>
+        <v>7407700</v>
       </c>
       <c r="E60" s="3">
-        <v>6497700</v>
+        <v>6524400</v>
       </c>
       <c r="F60" s="3">
-        <v>7024300</v>
+        <v>7053100</v>
       </c>
       <c r="G60" s="3">
-        <v>6869400</v>
+        <v>6897600</v>
       </c>
       <c r="H60" s="3">
-        <v>6340900</v>
+        <v>6366900</v>
       </c>
       <c r="I60" s="3">
-        <v>6651900</v>
+        <v>6679200</v>
       </c>
       <c r="J60" s="3">
-        <v>6629500</v>
+        <v>6656700</v>
       </c>
       <c r="K60" s="3">
         <v>6321200</v>
@@ -2232,25 +2232,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7699800</v>
+        <v>7731300</v>
       </c>
       <c r="E61" s="3">
-        <v>7307700</v>
+        <v>7337600</v>
       </c>
       <c r="F61" s="3">
-        <v>7202900</v>
+        <v>7232400</v>
       </c>
       <c r="G61" s="3">
-        <v>8769300</v>
+        <v>8805200</v>
       </c>
       <c r="H61" s="3">
-        <v>9964100</v>
+        <v>10004900</v>
       </c>
       <c r="I61" s="3">
-        <v>10381200</v>
+        <v>10423800</v>
       </c>
       <c r="J61" s="3">
-        <v>10965800</v>
+        <v>11010700</v>
       </c>
       <c r="K61" s="3">
         <v>9946000</v>
@@ -2264,25 +2264,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2752600</v>
+        <v>2763900</v>
       </c>
       <c r="E62" s="3">
-        <v>2531900</v>
+        <v>2542300</v>
       </c>
       <c r="F62" s="3">
-        <v>2507500</v>
+        <v>2517800</v>
       </c>
       <c r="G62" s="3">
-        <v>2319000</v>
+        <v>2328500</v>
       </c>
       <c r="H62" s="3">
-        <v>2264300</v>
+        <v>2273600</v>
       </c>
       <c r="I62" s="3">
-        <v>2246500</v>
+        <v>2255700</v>
       </c>
       <c r="J62" s="3">
-        <v>2282100</v>
+        <v>2291500</v>
       </c>
       <c r="K62" s="3">
         <v>2299400</v>
@@ -2392,25 +2392,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19431900</v>
+        <v>19511500</v>
       </c>
       <c r="E66" s="3">
-        <v>17317900</v>
+        <v>17388800</v>
       </c>
       <c r="F66" s="3">
-        <v>17689500</v>
+        <v>17762000</v>
       </c>
       <c r="G66" s="3">
-        <v>18410500</v>
+        <v>18485900</v>
       </c>
       <c r="H66" s="3">
-        <v>19020100</v>
+        <v>19098000</v>
       </c>
       <c r="I66" s="3">
-        <v>19723900</v>
+        <v>19804700</v>
       </c>
       <c r="J66" s="3">
-        <v>20327500</v>
+        <v>20410800</v>
       </c>
       <c r="K66" s="3">
         <v>18554100</v>
@@ -2566,25 +2566,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7960100</v>
+        <v>7992700</v>
       </c>
       <c r="E72" s="3">
-        <v>8073400</v>
+        <v>8106500</v>
       </c>
       <c r="F72" s="3">
-        <v>8000900</v>
+        <v>8033700</v>
       </c>
       <c r="G72" s="3">
-        <v>6690200</v>
+        <v>6717600</v>
       </c>
       <c r="H72" s="3">
-        <v>6639400</v>
+        <v>6666600</v>
       </c>
       <c r="I72" s="3">
-        <v>6604500</v>
+        <v>6631600</v>
       </c>
       <c r="J72" s="3">
-        <v>6768600</v>
+        <v>6796300</v>
       </c>
       <c r="K72" s="3">
         <v>6684500</v>
@@ -2694,25 +2694,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9994400</v>
+        <v>10035300</v>
       </c>
       <c r="E76" s="3">
-        <v>10115000</v>
+        <v>10156400</v>
       </c>
       <c r="F76" s="3">
-        <v>10550600</v>
+        <v>10593800</v>
       </c>
       <c r="G76" s="3">
-        <v>9613500</v>
+        <v>9652900</v>
       </c>
       <c r="H76" s="3">
-        <v>9556200</v>
+        <v>9595300</v>
       </c>
       <c r="I76" s="3">
-        <v>9537700</v>
+        <v>9576800</v>
       </c>
       <c r="J76" s="3">
-        <v>9693900</v>
+        <v>9733600</v>
       </c>
       <c r="K76" s="3">
         <v>9627100</v>
@@ -2795,25 +2795,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>570000</v>
+        <v>572400</v>
       </c>
       <c r="E81" s="3">
-        <v>652400</v>
+        <v>655100</v>
       </c>
       <c r="F81" s="3">
-        <v>460000</v>
+        <v>461900</v>
       </c>
       <c r="G81" s="3">
-        <v>500200</v>
+        <v>502200</v>
       </c>
       <c r="H81" s="3">
-        <v>723600</v>
+        <v>726500</v>
       </c>
       <c r="I81" s="3">
-        <v>448100</v>
+        <v>450000</v>
       </c>
       <c r="J81" s="3">
-        <v>750600</v>
+        <v>753700</v>
       </c>
       <c r="K81" s="3">
         <v>609400</v>
@@ -3033,25 +3033,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1888700</v>
+        <v>1896400</v>
       </c>
       <c r="E89" s="3">
-        <v>2638000</v>
+        <v>2648800</v>
       </c>
       <c r="F89" s="3">
-        <v>2139100</v>
+        <v>2147900</v>
       </c>
       <c r="G89" s="3">
-        <v>2496300</v>
+        <v>2506500</v>
       </c>
       <c r="H89" s="3">
-        <v>2268900</v>
+        <v>2278200</v>
       </c>
       <c r="I89" s="3">
-        <v>2818500</v>
+        <v>2830100</v>
       </c>
       <c r="J89" s="3">
-        <v>1801000</v>
+        <v>1808400</v>
       </c>
       <c r="K89" s="3">
         <v>2558100</v>
@@ -3079,25 +3079,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-747300</v>
+        <v>-1862000</v>
       </c>
       <c r="E91" s="3">
-        <v>-636600</v>
+        <v>-1468000</v>
       </c>
       <c r="F91" s="3">
-        <v>-797400</v>
+        <v>-1626000</v>
       </c>
       <c r="G91" s="3">
-        <v>-647800</v>
+        <v>-1543000</v>
       </c>
       <c r="H91" s="3">
-        <v>-722300</v>
+        <v>-1597000</v>
       </c>
       <c r="I91" s="3">
-        <v>-766400</v>
+        <v>-1935000</v>
       </c>
       <c r="J91" s="3">
-        <v>-776300</v>
+        <v>-1507000</v>
       </c>
       <c r="K91" s="3">
         <v>-926400</v>
@@ -3175,25 +3175,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2745400</v>
+        <v>-2756600</v>
       </c>
       <c r="E94" s="3">
-        <v>-970700</v>
+        <v>-974700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1266600</v>
+        <v>-1271800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1032700</v>
+        <v>-1036900</v>
       </c>
       <c r="H94" s="3">
-        <v>-512000</v>
+        <v>-514100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1161800</v>
+        <v>-1166600</v>
       </c>
       <c r="J94" s="3">
-        <v>-799400</v>
+        <v>-802600</v>
       </c>
       <c r="K94" s="3">
         <v>-942900</v>
@@ -3221,25 +3221,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-647100</v>
+        <v>-649800</v>
       </c>
       <c r="E96" s="3">
-        <v>-617500</v>
+        <v>-620000</v>
       </c>
       <c r="F96" s="3">
-        <v>-626700</v>
+        <v>-629300</v>
       </c>
       <c r="G96" s="3">
-        <v>-626700</v>
+        <v>-629300</v>
       </c>
       <c r="H96" s="3">
-        <v>-626700</v>
+        <v>-629300</v>
       </c>
       <c r="I96" s="3">
-        <v>-627400</v>
+        <v>-629900</v>
       </c>
       <c r="J96" s="3">
-        <v>-626700</v>
+        <v>-629300</v>
       </c>
       <c r="K96" s="3">
         <v>-629300</v>
@@ -3349,25 +3349,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>855400</v>
+        <v>858900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2079800</v>
+        <v>-2088300</v>
       </c>
       <c r="F100" s="3">
-        <v>-537100</v>
+        <v>-539300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1581600</v>
+        <v>-1588100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1209900</v>
+        <v>-1214900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1811600</v>
+        <v>-1819000</v>
       </c>
       <c r="J100" s="3">
-        <v>-915400</v>
+        <v>-919100</v>
       </c>
       <c r="K100" s="3">
         <v>-1574200</v>
@@ -3387,13 +3387,13 @@
         <v>11900</v>
       </c>
       <c r="F101" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="G101" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H101" s="3">
-        <v>-22400</v>
+        <v>-22500</v>
       </c>
       <c r="I101" s="3">
         <v>-2000</v>
@@ -3416,22 +3416,22 @@
         <v>1300</v>
       </c>
       <c r="E102" s="3">
-        <v>-400700</v>
+        <v>-402300</v>
       </c>
       <c r="F102" s="3">
-        <v>344700</v>
+        <v>346100</v>
       </c>
       <c r="G102" s="3">
-        <v>-112000</v>
+        <v>-112500</v>
       </c>
       <c r="H102" s="3">
-        <v>524600</v>
+        <v>526700</v>
       </c>
       <c r="I102" s="3">
-        <v>-156800</v>
+        <v>-157500</v>
       </c>
       <c r="J102" s="3">
-        <v>87600</v>
+        <v>88000</v>
       </c>
       <c r="K102" s="3">
         <v>41700</v>

--- a/AAII_Financials/Quarterly/TLGPY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLGPY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>TLGPY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,170 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7481200</v>
+        <v>7388000</v>
       </c>
       <c r="E8" s="3">
-        <v>7129200</v>
+        <v>7329700</v>
       </c>
       <c r="F8" s="3">
-        <v>6949800</v>
+        <v>6984800</v>
       </c>
       <c r="G8" s="3">
-        <v>6996800</v>
+        <v>6809100</v>
       </c>
       <c r="H8" s="3">
-        <v>7268100</v>
+        <v>6855100</v>
       </c>
       <c r="I8" s="3">
-        <v>7640000</v>
+        <v>7120900</v>
       </c>
       <c r="J8" s="3">
+        <v>7485300</v>
+      </c>
+      <c r="K8" s="3">
         <v>8048900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8385700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8328200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2793000</v>
+        <v>2781200</v>
       </c>
       <c r="E9" s="3">
-        <v>2699700</v>
+        <v>2736500</v>
       </c>
       <c r="F9" s="3">
-        <v>2744700</v>
+        <v>2645100</v>
       </c>
       <c r="G9" s="3">
-        <v>2719600</v>
+        <v>2689100</v>
       </c>
       <c r="H9" s="3">
-        <v>2784400</v>
+        <v>2664500</v>
       </c>
       <c r="I9" s="3">
-        <v>2967700</v>
+        <v>2728000</v>
       </c>
       <c r="J9" s="3">
+        <v>2907600</v>
+      </c>
+      <c r="K9" s="3">
         <v>3058400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3147000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2899600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4688100</v>
+        <v>4606800</v>
       </c>
       <c r="E10" s="3">
-        <v>4429400</v>
+        <v>4593200</v>
       </c>
       <c r="F10" s="3">
-        <v>4205100</v>
+        <v>4339700</v>
       </c>
       <c r="G10" s="3">
-        <v>4277200</v>
+        <v>4119900</v>
       </c>
       <c r="H10" s="3">
-        <v>4483700</v>
+        <v>4190600</v>
       </c>
       <c r="I10" s="3">
-        <v>4672300</v>
+        <v>4392900</v>
       </c>
       <c r="J10" s="3">
+        <v>4577600</v>
+      </c>
+      <c r="K10" s="3">
         <v>4990500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5238700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5428600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,8 +841,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,8 +874,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,72 +909,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>22500</v>
+        <v>32400</v>
       </c>
       <c r="E14" s="3">
-        <v>-104500</v>
+        <v>22000</v>
       </c>
       <c r="F14" s="3">
-        <v>178700</v>
+        <v>-102400</v>
       </c>
       <c r="G14" s="3">
-        <v>80100</v>
+        <v>175000</v>
       </c>
       <c r="H14" s="3">
-        <v>96600</v>
+        <v>78400</v>
       </c>
       <c r="I14" s="3">
-        <v>358000</v>
+        <v>94700</v>
       </c>
       <c r="J14" s="3">
+        <v>350700</v>
+      </c>
+      <c r="K14" s="3">
         <v>125700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>859500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1495400</v>
+        <v>1432700</v>
       </c>
       <c r="E15" s="3">
-        <v>1435200</v>
+        <v>1465200</v>
       </c>
       <c r="F15" s="3">
-        <v>1448500</v>
+        <v>1406200</v>
       </c>
       <c r="G15" s="3">
-        <v>1467000</v>
+        <v>1419100</v>
       </c>
       <c r="H15" s="3">
-        <v>1607300</v>
+        <v>1437300</v>
       </c>
       <c r="I15" s="3">
-        <v>1731000</v>
+        <v>1574700</v>
       </c>
       <c r="J15" s="3">
+        <v>1696000</v>
+      </c>
+      <c r="K15" s="3">
         <v>1801100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1416700</v>
       </c>
       <c r="L15" s="3">
         <v>1416700</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>1416700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -967,72 +993,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6602400</v>
+        <v>6398100</v>
       </c>
       <c r="E17" s="3">
-        <v>6310000</v>
+        <v>6468700</v>
       </c>
       <c r="F17" s="3">
-        <v>6355000</v>
+        <v>6182200</v>
       </c>
       <c r="G17" s="3">
-        <v>6460800</v>
+        <v>6226300</v>
       </c>
       <c r="H17" s="3">
-        <v>6795000</v>
+        <v>6330000</v>
       </c>
       <c r="I17" s="3">
-        <v>7423600</v>
+        <v>6657400</v>
       </c>
       <c r="J17" s="3">
+        <v>7273300</v>
+      </c>
+      <c r="K17" s="3">
         <v>7518200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8220300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>878700</v>
+        <v>990000</v>
       </c>
       <c r="E18" s="3">
-        <v>819200</v>
+        <v>860900</v>
       </c>
       <c r="F18" s="3">
-        <v>594900</v>
+        <v>802600</v>
       </c>
       <c r="G18" s="3">
-        <v>536000</v>
+        <v>582800</v>
       </c>
       <c r="H18" s="3">
-        <v>473100</v>
+        <v>525100</v>
       </c>
       <c r="I18" s="3">
-        <v>216400</v>
+        <v>463500</v>
       </c>
       <c r="J18" s="3">
+        <v>212000</v>
+      </c>
+      <c r="K18" s="3">
         <v>530700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>165400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>598800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,168 +1078,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>203800</v>
+        <v>193200</v>
       </c>
       <c r="E20" s="3">
-        <v>274600</v>
+        <v>199700</v>
       </c>
       <c r="F20" s="3">
-        <v>261400</v>
+        <v>269000</v>
       </c>
       <c r="G20" s="3">
-        <v>367900</v>
+        <v>256100</v>
       </c>
       <c r="H20" s="3">
-        <v>599500</v>
+        <v>360500</v>
       </c>
       <c r="I20" s="3">
-        <v>747700</v>
+        <v>587400</v>
       </c>
       <c r="J20" s="3">
+        <v>732600</v>
+      </c>
+      <c r="K20" s="3">
         <v>838400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>822500</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2578000</v>
+        <v>1150700</v>
       </c>
       <c r="E21" s="3">
-        <v>1080600</v>
+        <v>2525800</v>
       </c>
       <c r="F21" s="3">
-        <v>2304700</v>
+        <v>1058700</v>
       </c>
       <c r="G21" s="3">
-        <v>763600</v>
+        <v>2258000</v>
       </c>
       <c r="H21" s="3">
-        <v>2679900</v>
+        <v>748100</v>
       </c>
       <c r="I21" s="3">
-        <v>894000</v>
+        <v>2625600</v>
       </c>
       <c r="J21" s="3">
+        <v>875900</v>
+      </c>
+      <c r="K21" s="3">
         <v>3170200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1066000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2838000</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>189900</v>
+        <v>201600</v>
       </c>
       <c r="E22" s="3">
-        <v>139600</v>
+        <v>186100</v>
       </c>
       <c r="F22" s="3">
-        <v>168700</v>
+        <v>136800</v>
       </c>
       <c r="G22" s="3">
-        <v>171400</v>
+        <v>165300</v>
       </c>
       <c r="H22" s="3">
-        <v>189900</v>
+        <v>167900</v>
       </c>
       <c r="I22" s="3">
-        <v>223000</v>
+        <v>186100</v>
       </c>
       <c r="J22" s="3">
+        <v>218500</v>
+      </c>
+      <c r="K22" s="3">
         <v>260000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>222300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>232300</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>892600</v>
+        <v>981500</v>
       </c>
       <c r="E23" s="3">
-        <v>954200</v>
+        <v>874600</v>
       </c>
       <c r="F23" s="3">
-        <v>687500</v>
+        <v>934800</v>
       </c>
       <c r="G23" s="3">
-        <v>732500</v>
+        <v>673600</v>
       </c>
       <c r="H23" s="3">
-        <v>882700</v>
+        <v>717700</v>
       </c>
       <c r="I23" s="3">
-        <v>741100</v>
+        <v>864800</v>
       </c>
       <c r="J23" s="3">
+        <v>726100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1109000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>843700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>274600</v>
+        <v>257400</v>
       </c>
       <c r="E24" s="3">
-        <v>245500</v>
+        <v>269000</v>
       </c>
       <c r="F24" s="3">
-        <v>195900</v>
+        <v>240500</v>
       </c>
       <c r="G24" s="3">
-        <v>218400</v>
+        <v>191900</v>
       </c>
       <c r="H24" s="3">
-        <v>138300</v>
+        <v>213900</v>
       </c>
       <c r="I24" s="3">
-        <v>285200</v>
+        <v>135500</v>
       </c>
       <c r="J24" s="3">
+        <v>279400</v>
+      </c>
+      <c r="K24" s="3">
         <v>348100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>234200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>376500</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,72 +1286,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>618000</v>
+        <v>724200</v>
       </c>
       <c r="E26" s="3">
-        <v>708700</v>
+        <v>605500</v>
       </c>
       <c r="F26" s="3">
-        <v>491600</v>
+        <v>694300</v>
       </c>
       <c r="G26" s="3">
-        <v>514100</v>
+        <v>481700</v>
       </c>
       <c r="H26" s="3">
-        <v>744400</v>
+        <v>503700</v>
       </c>
       <c r="I26" s="3">
-        <v>455900</v>
+        <v>729300</v>
       </c>
       <c r="J26" s="3">
+        <v>446700</v>
+      </c>
+      <c r="K26" s="3">
         <v>761000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>609400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>812600</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>572400</v>
+        <v>689100</v>
       </c>
       <c r="E27" s="3">
-        <v>655100</v>
+        <v>560800</v>
       </c>
       <c r="F27" s="3">
-        <v>461900</v>
+        <v>641800</v>
       </c>
       <c r="G27" s="3">
-        <v>502200</v>
+        <v>452500</v>
       </c>
       <c r="H27" s="3">
-        <v>726500</v>
+        <v>492100</v>
       </c>
       <c r="I27" s="3">
-        <v>450000</v>
+        <v>711800</v>
       </c>
       <c r="J27" s="3">
+        <v>440800</v>
+      </c>
+      <c r="K27" s="3">
         <v>753700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>609400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>815900</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,8 +1391,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,14 +1420,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1397,8 +1461,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,72 +1496,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-203800</v>
+        <v>-193200</v>
       </c>
       <c r="E32" s="3">
-        <v>-274600</v>
+        <v>-199700</v>
       </c>
       <c r="F32" s="3">
-        <v>-261400</v>
+        <v>-269000</v>
       </c>
       <c r="G32" s="3">
-        <v>-367900</v>
+        <v>-256100</v>
       </c>
       <c r="H32" s="3">
-        <v>-599500</v>
+        <v>-360500</v>
       </c>
       <c r="I32" s="3">
-        <v>-747700</v>
+        <v>-587400</v>
       </c>
       <c r="J32" s="3">
+        <v>-732600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-838400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-822500</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>572400</v>
+        <v>689100</v>
       </c>
       <c r="E33" s="3">
-        <v>655100</v>
+        <v>560800</v>
       </c>
       <c r="F33" s="3">
-        <v>461900</v>
+        <v>641800</v>
       </c>
       <c r="G33" s="3">
-        <v>502200</v>
+        <v>452500</v>
       </c>
       <c r="H33" s="3">
-        <v>726500</v>
+        <v>492100</v>
       </c>
       <c r="I33" s="3">
-        <v>450000</v>
+        <v>711800</v>
       </c>
       <c r="J33" s="3">
+        <v>440800</v>
+      </c>
+      <c r="K33" s="3">
         <v>753700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>609400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>815900</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1525,77 +1601,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>572400</v>
+        <v>689100</v>
       </c>
       <c r="E35" s="3">
-        <v>655100</v>
+        <v>560800</v>
       </c>
       <c r="F35" s="3">
-        <v>461900</v>
+        <v>641800</v>
       </c>
       <c r="G35" s="3">
-        <v>502200</v>
+        <v>452500</v>
       </c>
       <c r="H35" s="3">
-        <v>726500</v>
+        <v>492100</v>
       </c>
       <c r="I35" s="3">
-        <v>450000</v>
+        <v>711800</v>
       </c>
       <c r="J35" s="3">
+        <v>440800</v>
+      </c>
+      <c r="K35" s="3">
         <v>753700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>609400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>815900</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1608,8 +1693,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,40 +1708,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>689500</v>
+        <v>604200</v>
       </c>
       <c r="E41" s="3">
-        <v>688200</v>
+        <v>675500</v>
       </c>
       <c r="F41" s="3">
-        <v>1092500</v>
+        <v>674200</v>
       </c>
       <c r="G41" s="3">
-        <v>744400</v>
+        <v>1070300</v>
       </c>
       <c r="H41" s="3">
-        <v>856900</v>
+        <v>729300</v>
       </c>
       <c r="I41" s="3">
-        <v>330200</v>
+        <v>839500</v>
       </c>
       <c r="J41" s="3">
+        <v>323500</v>
+      </c>
+      <c r="K41" s="3">
         <v>498900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>399700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>358000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1686,232 +1776,256 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2717600</v>
+        <v>2831800</v>
       </c>
       <c r="E43" s="3">
-        <v>2707000</v>
+        <v>2662600</v>
       </c>
       <c r="F43" s="3">
-        <v>2842000</v>
+        <v>2652200</v>
       </c>
       <c r="G43" s="3">
-        <v>3031900</v>
+        <v>2784400</v>
       </c>
       <c r="H43" s="3">
-        <v>3039800</v>
+        <v>2970500</v>
       </c>
       <c r="I43" s="3">
-        <v>3389900</v>
+        <v>2978300</v>
       </c>
       <c r="J43" s="3">
+        <v>3321200</v>
+      </c>
+      <c r="K43" s="3">
         <v>3509700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3572500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3624800</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>481700</v>
+        <v>354000</v>
       </c>
       <c r="E44" s="3">
-        <v>315000</v>
+        <v>472000</v>
       </c>
       <c r="F44" s="3">
-        <v>301700</v>
+        <v>308600</v>
       </c>
       <c r="G44" s="3">
-        <v>254800</v>
+        <v>295600</v>
       </c>
       <c r="H44" s="3">
-        <v>305000</v>
+        <v>249600</v>
       </c>
       <c r="I44" s="3">
-        <v>276600</v>
+        <v>298900</v>
       </c>
       <c r="J44" s="3">
+        <v>271000</v>
+      </c>
+      <c r="K44" s="3">
         <v>493000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>296400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>575000</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>518100</v>
+        <v>575000</v>
       </c>
       <c r="E45" s="3">
-        <v>432100</v>
+        <v>507600</v>
       </c>
       <c r="F45" s="3">
-        <v>624600</v>
+        <v>423300</v>
       </c>
       <c r="G45" s="3">
-        <v>676300</v>
+        <v>612000</v>
       </c>
       <c r="H45" s="3">
-        <v>684900</v>
+        <v>662600</v>
       </c>
       <c r="I45" s="3">
-        <v>326900</v>
+        <v>671000</v>
       </c>
       <c r="J45" s="3">
+        <v>320300</v>
+      </c>
+      <c r="K45" s="3">
         <v>444000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>563800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>365900</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4406900</v>
+        <v>4365000</v>
       </c>
       <c r="E46" s="3">
-        <v>4142200</v>
+        <v>4317700</v>
       </c>
       <c r="F46" s="3">
-        <v>4860800</v>
+        <v>4058400</v>
       </c>
       <c r="G46" s="3">
-        <v>4707300</v>
+        <v>4762400</v>
       </c>
       <c r="H46" s="3">
-        <v>4886700</v>
+        <v>4612000</v>
       </c>
       <c r="I46" s="3">
-        <v>4323500</v>
+        <v>4787700</v>
       </c>
       <c r="J46" s="3">
+        <v>4236000</v>
+      </c>
+      <c r="K46" s="3">
         <v>4945500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4832400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4923700</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1140100</v>
+        <v>1118300</v>
       </c>
       <c r="E47" s="3">
-        <v>1118300</v>
+        <v>1117000</v>
       </c>
       <c r="F47" s="3">
-        <v>1234700</v>
+        <v>1095600</v>
       </c>
       <c r="G47" s="3">
-        <v>1456400</v>
+        <v>1209700</v>
       </c>
       <c r="H47" s="3">
-        <v>1535800</v>
+        <v>1426900</v>
       </c>
       <c r="I47" s="3">
-        <v>1552300</v>
+        <v>1504700</v>
       </c>
       <c r="J47" s="3">
+        <v>1520900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1675400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1391600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1430600</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15699500</v>
+        <v>15425700</v>
       </c>
       <c r="E48" s="3">
-        <v>15491100</v>
+        <v>15381600</v>
       </c>
       <c r="F48" s="3">
-        <v>15727900</v>
+        <v>15177400</v>
       </c>
       <c r="G48" s="3">
-        <v>15692200</v>
+        <v>15409400</v>
       </c>
       <c r="H48" s="3">
-        <v>15850400</v>
+        <v>15374400</v>
       </c>
       <c r="I48" s="3">
-        <v>16230800</v>
+        <v>15529400</v>
       </c>
       <c r="J48" s="3">
+        <v>15902200</v>
+      </c>
+      <c r="K48" s="3">
         <v>16477700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14777100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14940500</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7136400</v>
+        <v>7124200</v>
       </c>
       <c r="E49" s="3">
-        <v>5396200</v>
+        <v>6991900</v>
       </c>
       <c r="F49" s="3">
-        <v>5181800</v>
+        <v>5286900</v>
       </c>
       <c r="G49" s="3">
-        <v>4718600</v>
+        <v>5076800</v>
       </c>
       <c r="H49" s="3">
-        <v>4706700</v>
+        <v>4623000</v>
       </c>
       <c r="I49" s="3">
-        <v>4904500</v>
+        <v>4611400</v>
       </c>
       <c r="J49" s="3">
+        <v>4805200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4762300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4770900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5176500</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,8 +2056,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1974,40 +2091,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1163900</v>
+        <v>1159200</v>
       </c>
       <c r="E52" s="3">
-        <v>1397500</v>
+        <v>1140400</v>
       </c>
       <c r="F52" s="3">
-        <v>1350500</v>
+        <v>1369200</v>
       </c>
       <c r="G52" s="3">
-        <v>1564300</v>
+        <v>1323200</v>
       </c>
       <c r="H52" s="3">
-        <v>1713800</v>
+        <v>1532600</v>
       </c>
       <c r="I52" s="3">
-        <v>2370200</v>
+        <v>1679100</v>
       </c>
       <c r="J52" s="3">
+        <v>2322200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2283500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2409200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2460200</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2038,40 +2161,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29546900</v>
+        <v>29192300</v>
       </c>
       <c r="E54" s="3">
-        <v>27545200</v>
+        <v>28948500</v>
       </c>
       <c r="F54" s="3">
-        <v>28355800</v>
+        <v>26987400</v>
       </c>
       <c r="G54" s="3">
-        <v>28138800</v>
+        <v>27781600</v>
       </c>
       <c r="H54" s="3">
-        <v>28693300</v>
+        <v>27569000</v>
       </c>
       <c r="I54" s="3">
-        <v>29381500</v>
+        <v>28112200</v>
       </c>
       <c r="J54" s="3">
+        <v>28786500</v>
+      </c>
+      <c r="K54" s="3">
         <v>30144400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28181100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28931500</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2084,8 +2213,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,200 +2228,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2621700</v>
+        <v>1031400</v>
       </c>
       <c r="E57" s="3">
-        <v>858200</v>
+        <v>2568600</v>
       </c>
       <c r="F57" s="3">
-        <v>2286200</v>
+        <v>853800</v>
       </c>
       <c r="G57" s="3">
-        <v>796700</v>
+        <v>2239900</v>
       </c>
       <c r="H57" s="3">
-        <v>712000</v>
+        <v>780600</v>
       </c>
       <c r="I57" s="3">
-        <v>653800</v>
+        <v>697600</v>
       </c>
       <c r="J57" s="3">
+        <v>640500</v>
+      </c>
+      <c r="K57" s="3">
         <v>665000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2996200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2931300</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2976300</v>
+        <v>2016200</v>
       </c>
       <c r="E58" s="3">
-        <v>2104200</v>
+        <v>2916100</v>
       </c>
       <c r="F58" s="3">
-        <v>3108000</v>
+        <v>2061600</v>
       </c>
       <c r="G58" s="3">
-        <v>2735500</v>
+        <v>3045100</v>
       </c>
       <c r="H58" s="3">
-        <v>2212100</v>
+        <v>2680100</v>
       </c>
       <c r="I58" s="3">
-        <v>2232600</v>
+        <v>2167300</v>
       </c>
       <c r="J58" s="3">
+        <v>2187400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2432400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1470300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>764300</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1809700</v>
+        <v>3495000</v>
       </c>
       <c r="E59" s="3">
-        <v>3561900</v>
+        <v>1773100</v>
       </c>
       <c r="F59" s="3">
-        <v>1658900</v>
+        <v>3371800</v>
       </c>
       <c r="G59" s="3">
-        <v>3365400</v>
+        <v>1625300</v>
       </c>
       <c r="H59" s="3">
-        <v>3442800</v>
+        <v>3297300</v>
       </c>
       <c r="I59" s="3">
-        <v>3792900</v>
+        <v>3373100</v>
       </c>
       <c r="J59" s="3">
+        <v>3716100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3559300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1854700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1637000</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7407700</v>
+        <v>6542600</v>
       </c>
       <c r="E60" s="3">
-        <v>6524400</v>
+        <v>7257700</v>
       </c>
       <c r="F60" s="3">
-        <v>7053100</v>
+        <v>6287200</v>
       </c>
       <c r="G60" s="3">
-        <v>6897600</v>
+        <v>6910200</v>
       </c>
       <c r="H60" s="3">
-        <v>6366900</v>
+        <v>6757900</v>
       </c>
       <c r="I60" s="3">
-        <v>6679200</v>
+        <v>6237900</v>
       </c>
       <c r="J60" s="3">
+        <v>6543900</v>
+      </c>
+      <c r="K60" s="3">
         <v>6656700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6321200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5332600</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7731300</v>
+        <v>8269700</v>
       </c>
       <c r="E61" s="3">
-        <v>7337600</v>
+        <v>7574700</v>
       </c>
       <c r="F61" s="3">
-        <v>7232400</v>
+        <v>7189000</v>
       </c>
       <c r="G61" s="3">
-        <v>8805200</v>
+        <v>7085900</v>
       </c>
       <c r="H61" s="3">
-        <v>10004900</v>
+        <v>8626900</v>
       </c>
       <c r="I61" s="3">
-        <v>10423800</v>
+        <v>9802300</v>
       </c>
       <c r="J61" s="3">
+        <v>10212700</v>
+      </c>
+      <c r="K61" s="3">
         <v>11010700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9946000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11333600</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2763900</v>
+        <v>2829800</v>
       </c>
       <c r="E62" s="3">
-        <v>2542300</v>
+        <v>2707900</v>
       </c>
       <c r="F62" s="3">
-        <v>2517800</v>
+        <v>2505700</v>
       </c>
       <c r="G62" s="3">
-        <v>2328500</v>
+        <v>2466800</v>
       </c>
       <c r="H62" s="3">
-        <v>2273600</v>
+        <v>2281400</v>
       </c>
       <c r="I62" s="3">
-        <v>2255700</v>
+        <v>2227600</v>
       </c>
       <c r="J62" s="3">
+        <v>2210100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2291500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2299400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2667300</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2471,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2354,8 +2506,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2386,40 +2541,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19511500</v>
+        <v>19203900</v>
       </c>
       <c r="E66" s="3">
-        <v>17388800</v>
+        <v>19116400</v>
       </c>
       <c r="F66" s="3">
-        <v>17762000</v>
+        <v>16946600</v>
       </c>
       <c r="G66" s="3">
-        <v>18485900</v>
+        <v>17402300</v>
       </c>
       <c r="H66" s="3">
-        <v>19098000</v>
+        <v>18111600</v>
       </c>
       <c r="I66" s="3">
-        <v>19804700</v>
+        <v>18711200</v>
       </c>
       <c r="J66" s="3">
+        <v>19403600</v>
+      </c>
+      <c r="K66" s="3">
         <v>20410800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18554100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19321000</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2432,8 +2593,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2464,8 +2626,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2496,8 +2661,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2528,8 +2696,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2560,40 +2731,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7992700</v>
+        <v>7981900</v>
       </c>
       <c r="E72" s="3">
-        <v>8106500</v>
+        <v>7830800</v>
       </c>
       <c r="F72" s="3">
-        <v>8033700</v>
+        <v>8032400</v>
       </c>
       <c r="G72" s="3">
-        <v>6717600</v>
+        <v>7871000</v>
       </c>
       <c r="H72" s="3">
-        <v>6666600</v>
+        <v>6581500</v>
       </c>
       <c r="I72" s="3">
-        <v>6631600</v>
+        <v>6531600</v>
       </c>
       <c r="J72" s="3">
+        <v>6497300</v>
+      </c>
+      <c r="K72" s="3">
         <v>6796300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6684500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6675200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2624,8 +2801,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2656,8 +2836,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2688,40 +2871,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10035300</v>
+        <v>9988400</v>
       </c>
       <c r="E76" s="3">
-        <v>10156400</v>
+        <v>9832100</v>
       </c>
       <c r="F76" s="3">
-        <v>10593800</v>
+        <v>10040900</v>
       </c>
       <c r="G76" s="3">
-        <v>9652900</v>
+        <v>10379300</v>
       </c>
       <c r="H76" s="3">
-        <v>9595300</v>
+        <v>9457400</v>
       </c>
       <c r="I76" s="3">
-        <v>9576800</v>
+        <v>9401000</v>
       </c>
       <c r="J76" s="3">
+        <v>9382800</v>
+      </c>
+      <c r="K76" s="3">
         <v>9733600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9627100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9610500</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2752,77 +2941,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>572400</v>
+        <v>689100</v>
       </c>
       <c r="E81" s="3">
-        <v>655100</v>
+        <v>560800</v>
       </c>
       <c r="F81" s="3">
-        <v>461900</v>
+        <v>641800</v>
       </c>
       <c r="G81" s="3">
-        <v>502200</v>
+        <v>452500</v>
       </c>
       <c r="H81" s="3">
-        <v>726500</v>
+        <v>492100</v>
       </c>
       <c r="I81" s="3">
-        <v>450000</v>
+        <v>711800</v>
       </c>
       <c r="J81" s="3">
+        <v>440800</v>
+      </c>
+      <c r="K81" s="3">
         <v>753700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>609400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>815900</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2835,8 +3033,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2867,8 +3066,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2899,8 +3101,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2931,8 +3136,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2963,8 +3171,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2995,8 +3206,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3027,40 +3241,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1896400</v>
+        <v>2551700</v>
       </c>
       <c r="E89" s="3">
-        <v>2648800</v>
+        <v>1858000</v>
       </c>
       <c r="F89" s="3">
-        <v>2147900</v>
+        <v>2595100</v>
       </c>
       <c r="G89" s="3">
-        <v>2506500</v>
+        <v>2104400</v>
       </c>
       <c r="H89" s="3">
-        <v>2278200</v>
+        <v>2455800</v>
       </c>
       <c r="I89" s="3">
-        <v>2830100</v>
+        <v>2232100</v>
       </c>
       <c r="J89" s="3">
+        <v>2772800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1808400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2558100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1864000</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3073,40 +3293,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2008000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1862000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1468000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1626000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1543000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1597000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1935000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1507000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-926400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1214200</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3137,8 +3361,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3169,40 +3396,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2756600</v>
+        <v>-1157200</v>
       </c>
       <c r="E94" s="3">
-        <v>-974700</v>
+        <v>-2700800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1271800</v>
+        <v>-954900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1036900</v>
+        <v>-1246000</v>
       </c>
       <c r="H94" s="3">
-        <v>-514100</v>
+        <v>-1015900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1166600</v>
+        <v>-503700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1143000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-802600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-942900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1449100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3215,40 +3448,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-649800</v>
+        <v>-636600</v>
       </c>
       <c r="E96" s="3">
-        <v>-620000</v>
+        <v>-636600</v>
       </c>
       <c r="F96" s="3">
-        <v>-629300</v>
+        <v>-607500</v>
       </c>
       <c r="G96" s="3">
-        <v>-629300</v>
+        <v>-616500</v>
       </c>
       <c r="H96" s="3">
-        <v>-629300</v>
+        <v>-616500</v>
       </c>
       <c r="I96" s="3">
-        <v>-629900</v>
+        <v>-616500</v>
       </c>
       <c r="J96" s="3">
-        <v>-629300</v>
+        <v>-617200</v>
       </c>
       <c r="K96" s="3">
         <v>-629300</v>
       </c>
       <c r="L96" s="3">
+        <v>-629300</v>
+      </c>
+      <c r="M96" s="3">
         <v>-865500</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3279,8 +3516,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3311,8 +3551,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3343,100 +3586,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>858900</v>
+        <v>-1469700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2088300</v>
+        <v>841500</v>
       </c>
       <c r="F100" s="3">
-        <v>-539300</v>
+        <v>-2046000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1588100</v>
+        <v>-528400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1214900</v>
+        <v>-1555900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1819000</v>
+        <v>-1190300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1782200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-919100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1574200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-469100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E101" s="3">
         <v>2600</v>
       </c>
-      <c r="E101" s="3">
-        <v>11900</v>
-      </c>
       <c r="F101" s="3">
-        <v>9300</v>
+        <v>11700</v>
       </c>
       <c r="G101" s="3">
-        <v>6000</v>
+        <v>9100</v>
       </c>
       <c r="H101" s="3">
-        <v>-22500</v>
+        <v>5800</v>
       </c>
       <c r="I101" s="3">
-        <v>-2000</v>
+        <v>-22000</v>
       </c>
       <c r="J101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
-        <v>-402300</v>
-      </c>
       <c r="F102" s="3">
-        <v>346100</v>
+        <v>-394200</v>
       </c>
       <c r="G102" s="3">
-        <v>-112500</v>
+        <v>339100</v>
       </c>
       <c r="H102" s="3">
-        <v>526700</v>
+        <v>-110200</v>
       </c>
       <c r="I102" s="3">
-        <v>-157500</v>
+        <v>516000</v>
       </c>
       <c r="J102" s="3">
+        <v>-154300</v>
+      </c>
+      <c r="K102" s="3">
         <v>88000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>41700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-52300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLGPY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLGPY_QTR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7388000</v>
+        <v>7373200</v>
       </c>
       <c r="E8" s="3">
-        <v>7329700</v>
+        <v>7315000</v>
       </c>
       <c r="F8" s="3">
-        <v>6984800</v>
+        <v>6970800</v>
       </c>
       <c r="G8" s="3">
-        <v>6809100</v>
+        <v>6795400</v>
       </c>
       <c r="H8" s="3">
-        <v>6855100</v>
+        <v>6841400</v>
       </c>
       <c r="I8" s="3">
-        <v>7120900</v>
+        <v>7106600</v>
       </c>
       <c r="J8" s="3">
-        <v>7485300</v>
+        <v>7470300</v>
       </c>
       <c r="K8" s="3">
         <v>8048900</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2781200</v>
+        <v>2775600</v>
       </c>
       <c r="E9" s="3">
-        <v>2736500</v>
+        <v>2731000</v>
       </c>
       <c r="F9" s="3">
-        <v>2645100</v>
+        <v>2639800</v>
       </c>
       <c r="G9" s="3">
-        <v>2689100</v>
+        <v>2683800</v>
       </c>
       <c r="H9" s="3">
-        <v>2664500</v>
+        <v>2659200</v>
       </c>
       <c r="I9" s="3">
-        <v>2728000</v>
+        <v>2722600</v>
       </c>
       <c r="J9" s="3">
-        <v>2907600</v>
+        <v>2901800</v>
       </c>
       <c r="K9" s="3">
         <v>3058400</v>
@@ -798,25 +798,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4606800</v>
+        <v>4597600</v>
       </c>
       <c r="E10" s="3">
-        <v>4593200</v>
+        <v>4584000</v>
       </c>
       <c r="F10" s="3">
-        <v>4339700</v>
+        <v>4331000</v>
       </c>
       <c r="G10" s="3">
-        <v>4119900</v>
+        <v>4111700</v>
       </c>
       <c r="H10" s="3">
-        <v>4190600</v>
+        <v>4182200</v>
       </c>
       <c r="I10" s="3">
-        <v>4392900</v>
+        <v>4384100</v>
       </c>
       <c r="J10" s="3">
-        <v>4577600</v>
+        <v>4568500</v>
       </c>
       <c r="K10" s="3">
         <v>4990500</v>
@@ -924,19 +924,19 @@
         <v>22000</v>
       </c>
       <c r="F14" s="3">
-        <v>-102400</v>
+        <v>-102200</v>
       </c>
       <c r="G14" s="3">
-        <v>175000</v>
+        <v>174700</v>
       </c>
       <c r="H14" s="3">
-        <v>78400</v>
+        <v>78300</v>
       </c>
       <c r="I14" s="3">
-        <v>94700</v>
+        <v>94500</v>
       </c>
       <c r="J14" s="3">
-        <v>350700</v>
+        <v>350000</v>
       </c>
       <c r="K14" s="3">
         <v>125700</v>
@@ -953,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1432700</v>
+        <v>1429900</v>
       </c>
       <c r="E15" s="3">
-        <v>1465200</v>
+        <v>1462200</v>
       </c>
       <c r="F15" s="3">
-        <v>1406200</v>
+        <v>1403300</v>
       </c>
       <c r="G15" s="3">
-        <v>1419100</v>
+        <v>1416300</v>
       </c>
       <c r="H15" s="3">
-        <v>1437300</v>
+        <v>1434400</v>
       </c>
       <c r="I15" s="3">
-        <v>1574700</v>
+        <v>1571600</v>
       </c>
       <c r="J15" s="3">
-        <v>1696000</v>
+        <v>1692600</v>
       </c>
       <c r="K15" s="3">
         <v>1801100</v>
@@ -1000,25 +1000,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6398100</v>
+        <v>6385200</v>
       </c>
       <c r="E17" s="3">
-        <v>6468700</v>
+        <v>6455800</v>
       </c>
       <c r="F17" s="3">
-        <v>6182200</v>
+        <v>6169800</v>
       </c>
       <c r="G17" s="3">
-        <v>6226300</v>
+        <v>6213800</v>
       </c>
       <c r="H17" s="3">
-        <v>6330000</v>
+        <v>6317300</v>
       </c>
       <c r="I17" s="3">
-        <v>6657400</v>
+        <v>6644000</v>
       </c>
       <c r="J17" s="3">
-        <v>7273300</v>
+        <v>7258700</v>
       </c>
       <c r="K17" s="3">
         <v>7518200</v>
@@ -1035,25 +1035,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>990000</v>
+        <v>988000</v>
       </c>
       <c r="E18" s="3">
-        <v>860900</v>
+        <v>859200</v>
       </c>
       <c r="F18" s="3">
-        <v>802600</v>
+        <v>801000</v>
       </c>
       <c r="G18" s="3">
-        <v>582800</v>
+        <v>581700</v>
       </c>
       <c r="H18" s="3">
-        <v>525100</v>
+        <v>524100</v>
       </c>
       <c r="I18" s="3">
-        <v>463500</v>
+        <v>462600</v>
       </c>
       <c r="J18" s="3">
-        <v>212000</v>
+        <v>211600</v>
       </c>
       <c r="K18" s="3">
         <v>530700</v>
@@ -1085,25 +1085,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>193200</v>
+        <v>192800</v>
       </c>
       <c r="E20" s="3">
-        <v>199700</v>
+        <v>199300</v>
       </c>
       <c r="F20" s="3">
-        <v>269000</v>
+        <v>268500</v>
       </c>
       <c r="G20" s="3">
-        <v>256100</v>
+        <v>255600</v>
       </c>
       <c r="H20" s="3">
-        <v>360500</v>
+        <v>359700</v>
       </c>
       <c r="I20" s="3">
-        <v>587400</v>
+        <v>586200</v>
       </c>
       <c r="J20" s="3">
-        <v>732600</v>
+        <v>731100</v>
       </c>
       <c r="K20" s="3">
         <v>838400</v>
@@ -1120,25 +1120,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1150700</v>
+        <v>1148400</v>
       </c>
       <c r="E21" s="3">
-        <v>2525800</v>
+        <v>2520700</v>
       </c>
       <c r="F21" s="3">
-        <v>1058700</v>
+        <v>1056600</v>
       </c>
       <c r="G21" s="3">
-        <v>2258000</v>
+        <v>2253500</v>
       </c>
       <c r="H21" s="3">
-        <v>748100</v>
+        <v>746600</v>
       </c>
       <c r="I21" s="3">
-        <v>2625600</v>
+        <v>2620400</v>
       </c>
       <c r="J21" s="3">
-        <v>875900</v>
+        <v>874100</v>
       </c>
       <c r="K21" s="3">
         <v>3170200</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>201600</v>
+        <v>201200</v>
       </c>
       <c r="E22" s="3">
-        <v>186100</v>
+        <v>185700</v>
       </c>
       <c r="F22" s="3">
-        <v>136800</v>
+        <v>136500</v>
       </c>
       <c r="G22" s="3">
-        <v>165300</v>
+        <v>165000</v>
       </c>
       <c r="H22" s="3">
-        <v>167900</v>
+        <v>167600</v>
       </c>
       <c r="I22" s="3">
-        <v>186100</v>
+        <v>185700</v>
       </c>
       <c r="J22" s="3">
-        <v>218500</v>
+        <v>218000</v>
       </c>
       <c r="K22" s="3">
         <v>260000</v>
@@ -1190,25 +1190,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>981500</v>
+        <v>979600</v>
       </c>
       <c r="E23" s="3">
-        <v>874600</v>
+        <v>872800</v>
       </c>
       <c r="F23" s="3">
-        <v>934800</v>
+        <v>933000</v>
       </c>
       <c r="G23" s="3">
-        <v>673600</v>
+        <v>672200</v>
       </c>
       <c r="H23" s="3">
-        <v>717700</v>
+        <v>716200</v>
       </c>
       <c r="I23" s="3">
-        <v>864800</v>
+        <v>863100</v>
       </c>
       <c r="J23" s="3">
-        <v>726100</v>
+        <v>724600</v>
       </c>
       <c r="K23" s="3">
         <v>1109000</v>
@@ -1225,25 +1225,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>257400</v>
+        <v>256900</v>
       </c>
       <c r="E24" s="3">
-        <v>269000</v>
+        <v>268500</v>
       </c>
       <c r="F24" s="3">
-        <v>240500</v>
+        <v>240000</v>
       </c>
       <c r="G24" s="3">
-        <v>191900</v>
+        <v>191500</v>
       </c>
       <c r="H24" s="3">
-        <v>213900</v>
+        <v>213500</v>
       </c>
       <c r="I24" s="3">
-        <v>135500</v>
+        <v>135200</v>
       </c>
       <c r="J24" s="3">
-        <v>279400</v>
+        <v>278900</v>
       </c>
       <c r="K24" s="3">
         <v>348100</v>
@@ -1295,25 +1295,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>724200</v>
+        <v>722700</v>
       </c>
       <c r="E26" s="3">
-        <v>605500</v>
+        <v>604300</v>
       </c>
       <c r="F26" s="3">
-        <v>694300</v>
+        <v>692900</v>
       </c>
       <c r="G26" s="3">
-        <v>481700</v>
+        <v>480700</v>
       </c>
       <c r="H26" s="3">
-        <v>503700</v>
+        <v>502700</v>
       </c>
       <c r="I26" s="3">
-        <v>729300</v>
+        <v>727900</v>
       </c>
       <c r="J26" s="3">
-        <v>446700</v>
+        <v>445800</v>
       </c>
       <c r="K26" s="3">
         <v>761000</v>
@@ -1330,25 +1330,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>689100</v>
+        <v>687800</v>
       </c>
       <c r="E27" s="3">
-        <v>560800</v>
+        <v>559700</v>
       </c>
       <c r="F27" s="3">
-        <v>641800</v>
+        <v>640500</v>
       </c>
       <c r="G27" s="3">
-        <v>452500</v>
+        <v>451600</v>
       </c>
       <c r="H27" s="3">
-        <v>492100</v>
+        <v>491100</v>
       </c>
       <c r="I27" s="3">
-        <v>711800</v>
+        <v>710400</v>
       </c>
       <c r="J27" s="3">
-        <v>440800</v>
+        <v>440000</v>
       </c>
       <c r="K27" s="3">
         <v>753700</v>
@@ -1505,25 +1505,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-193200</v>
+        <v>-192800</v>
       </c>
       <c r="E32" s="3">
-        <v>-199700</v>
+        <v>-199300</v>
       </c>
       <c r="F32" s="3">
-        <v>-269000</v>
+        <v>-268500</v>
       </c>
       <c r="G32" s="3">
-        <v>-256100</v>
+        <v>-255600</v>
       </c>
       <c r="H32" s="3">
-        <v>-360500</v>
+        <v>-359700</v>
       </c>
       <c r="I32" s="3">
-        <v>-587400</v>
+        <v>-586200</v>
       </c>
       <c r="J32" s="3">
-        <v>-732600</v>
+        <v>-731100</v>
       </c>
       <c r="K32" s="3">
         <v>-838400</v>
@@ -1540,25 +1540,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>689100</v>
+        <v>687800</v>
       </c>
       <c r="E33" s="3">
-        <v>560800</v>
+        <v>559700</v>
       </c>
       <c r="F33" s="3">
-        <v>641800</v>
+        <v>640500</v>
       </c>
       <c r="G33" s="3">
-        <v>452500</v>
+        <v>451600</v>
       </c>
       <c r="H33" s="3">
-        <v>492100</v>
+        <v>491100</v>
       </c>
       <c r="I33" s="3">
-        <v>711800</v>
+        <v>710400</v>
       </c>
       <c r="J33" s="3">
-        <v>440800</v>
+        <v>440000</v>
       </c>
       <c r="K33" s="3">
         <v>753700</v>
@@ -1610,25 +1610,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>689100</v>
+        <v>687800</v>
       </c>
       <c r="E35" s="3">
-        <v>560800</v>
+        <v>559700</v>
       </c>
       <c r="F35" s="3">
-        <v>641800</v>
+        <v>640500</v>
       </c>
       <c r="G35" s="3">
-        <v>452500</v>
+        <v>451600</v>
       </c>
       <c r="H35" s="3">
-        <v>492100</v>
+        <v>491100</v>
       </c>
       <c r="I35" s="3">
-        <v>711800</v>
+        <v>710400</v>
       </c>
       <c r="J35" s="3">
-        <v>440800</v>
+        <v>440000</v>
       </c>
       <c r="K35" s="3">
         <v>753700</v>
@@ -1715,25 +1715,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>604200</v>
+        <v>603000</v>
       </c>
       <c r="E41" s="3">
-        <v>675500</v>
+        <v>674200</v>
       </c>
       <c r="F41" s="3">
-        <v>674200</v>
+        <v>672900</v>
       </c>
       <c r="G41" s="3">
-        <v>1070300</v>
+        <v>1068200</v>
       </c>
       <c r="H41" s="3">
-        <v>729300</v>
+        <v>727900</v>
       </c>
       <c r="I41" s="3">
-        <v>839500</v>
+        <v>837900</v>
       </c>
       <c r="J41" s="3">
-        <v>323500</v>
+        <v>322900</v>
       </c>
       <c r="K41" s="3">
         <v>498900</v>
@@ -1785,25 +1785,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2831800</v>
+        <v>2826100</v>
       </c>
       <c r="E43" s="3">
-        <v>2662600</v>
+        <v>2657200</v>
       </c>
       <c r="F43" s="3">
-        <v>2652200</v>
+        <v>2646900</v>
       </c>
       <c r="G43" s="3">
-        <v>2784400</v>
+        <v>2778900</v>
       </c>
       <c r="H43" s="3">
-        <v>2970500</v>
+        <v>2964600</v>
       </c>
       <c r="I43" s="3">
-        <v>2978300</v>
+        <v>2972300</v>
       </c>
       <c r="J43" s="3">
-        <v>3321200</v>
+        <v>3314600</v>
       </c>
       <c r="K43" s="3">
         <v>3509700</v>
@@ -1820,25 +1820,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>354000</v>
+        <v>353300</v>
       </c>
       <c r="E44" s="3">
-        <v>472000</v>
+        <v>471000</v>
       </c>
       <c r="F44" s="3">
-        <v>308600</v>
+        <v>308000</v>
       </c>
       <c r="G44" s="3">
-        <v>295600</v>
+        <v>295000</v>
       </c>
       <c r="H44" s="3">
-        <v>249600</v>
+        <v>249100</v>
       </c>
       <c r="I44" s="3">
-        <v>298900</v>
+        <v>298300</v>
       </c>
       <c r="J44" s="3">
-        <v>271000</v>
+        <v>270400</v>
       </c>
       <c r="K44" s="3">
         <v>493000</v>
@@ -1855,25 +1855,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>575000</v>
+        <v>573900</v>
       </c>
       <c r="E45" s="3">
-        <v>507600</v>
+        <v>506600</v>
       </c>
       <c r="F45" s="3">
-        <v>423300</v>
+        <v>422500</v>
       </c>
       <c r="G45" s="3">
-        <v>612000</v>
+        <v>610800</v>
       </c>
       <c r="H45" s="3">
-        <v>662600</v>
+        <v>661200</v>
       </c>
       <c r="I45" s="3">
-        <v>671000</v>
+        <v>669600</v>
       </c>
       <c r="J45" s="3">
-        <v>320300</v>
+        <v>319600</v>
       </c>
       <c r="K45" s="3">
         <v>444000</v>
@@ -1890,25 +1890,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4365000</v>
+        <v>4356300</v>
       </c>
       <c r="E46" s="3">
-        <v>4317700</v>
+        <v>4309000</v>
       </c>
       <c r="F46" s="3">
-        <v>4058400</v>
+        <v>4050200</v>
       </c>
       <c r="G46" s="3">
-        <v>4762400</v>
+        <v>4752900</v>
       </c>
       <c r="H46" s="3">
-        <v>4612000</v>
+        <v>4602800</v>
       </c>
       <c r="I46" s="3">
-        <v>4787700</v>
+        <v>4778100</v>
       </c>
       <c r="J46" s="3">
-        <v>4236000</v>
+        <v>4227500</v>
       </c>
       <c r="K46" s="3">
         <v>4945500</v>
@@ -1925,25 +1925,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1118300</v>
+        <v>1116100</v>
       </c>
       <c r="E47" s="3">
-        <v>1117000</v>
+        <v>1114800</v>
       </c>
       <c r="F47" s="3">
-        <v>1095600</v>
+        <v>1093400</v>
       </c>
       <c r="G47" s="3">
-        <v>1209700</v>
+        <v>1207300</v>
       </c>
       <c r="H47" s="3">
-        <v>1426900</v>
+        <v>1424000</v>
       </c>
       <c r="I47" s="3">
-        <v>1504700</v>
+        <v>1501700</v>
       </c>
       <c r="J47" s="3">
-        <v>1520900</v>
+        <v>1517900</v>
       </c>
       <c r="K47" s="3">
         <v>1675400</v>
@@ -1960,25 +1960,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15425700</v>
+        <v>15394700</v>
       </c>
       <c r="E48" s="3">
-        <v>15381600</v>
+        <v>15350700</v>
       </c>
       <c r="F48" s="3">
-        <v>15177400</v>
+        <v>15146900</v>
       </c>
       <c r="G48" s="3">
-        <v>15409400</v>
+        <v>15378500</v>
       </c>
       <c r="H48" s="3">
-        <v>15374400</v>
+        <v>15343600</v>
       </c>
       <c r="I48" s="3">
-        <v>15529400</v>
+        <v>15498200</v>
       </c>
       <c r="J48" s="3">
-        <v>15902200</v>
+        <v>15870300</v>
       </c>
       <c r="K48" s="3">
         <v>16477700</v>
@@ -1995,25 +1995,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7124200</v>
+        <v>7109900</v>
       </c>
       <c r="E49" s="3">
-        <v>6991900</v>
+        <v>6977900</v>
       </c>
       <c r="F49" s="3">
-        <v>5286900</v>
+        <v>5276300</v>
       </c>
       <c r="G49" s="3">
-        <v>5076800</v>
+        <v>5066700</v>
       </c>
       <c r="H49" s="3">
-        <v>4623000</v>
+        <v>4613800</v>
       </c>
       <c r="I49" s="3">
-        <v>4611400</v>
+        <v>4602100</v>
       </c>
       <c r="J49" s="3">
-        <v>4805200</v>
+        <v>4795600</v>
       </c>
       <c r="K49" s="3">
         <v>4762300</v>
@@ -2100,25 +2100,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1159200</v>
+        <v>1156800</v>
       </c>
       <c r="E52" s="3">
-        <v>1140400</v>
+        <v>1138100</v>
       </c>
       <c r="F52" s="3">
-        <v>1369200</v>
+        <v>1366500</v>
       </c>
       <c r="G52" s="3">
-        <v>1323200</v>
+        <v>1320500</v>
       </c>
       <c r="H52" s="3">
-        <v>1532600</v>
+        <v>1529500</v>
       </c>
       <c r="I52" s="3">
-        <v>1679100</v>
+        <v>1675700</v>
       </c>
       <c r="J52" s="3">
-        <v>2322200</v>
+        <v>2317600</v>
       </c>
       <c r="K52" s="3">
         <v>2283500</v>
@@ -2170,25 +2170,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29192300</v>
+        <v>29133800</v>
       </c>
       <c r="E54" s="3">
-        <v>28948500</v>
+        <v>28890500</v>
       </c>
       <c r="F54" s="3">
-        <v>26987400</v>
+        <v>26933300</v>
       </c>
       <c r="G54" s="3">
-        <v>27781600</v>
+        <v>27725900</v>
       </c>
       <c r="H54" s="3">
-        <v>27569000</v>
+        <v>27513700</v>
       </c>
       <c r="I54" s="3">
-        <v>28112200</v>
+        <v>28055900</v>
       </c>
       <c r="J54" s="3">
-        <v>28786500</v>
+        <v>28728700</v>
       </c>
       <c r="K54" s="3">
         <v>30144400</v>
@@ -2235,25 +2235,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1031400</v>
+        <v>1029400</v>
       </c>
       <c r="E57" s="3">
-        <v>2568600</v>
+        <v>2563400</v>
       </c>
       <c r="F57" s="3">
-        <v>853800</v>
+        <v>852100</v>
       </c>
       <c r="G57" s="3">
-        <v>2239900</v>
+        <v>2235400</v>
       </c>
       <c r="H57" s="3">
-        <v>780600</v>
+        <v>779000</v>
       </c>
       <c r="I57" s="3">
-        <v>697600</v>
+        <v>696200</v>
       </c>
       <c r="J57" s="3">
-        <v>640500</v>
+        <v>639200</v>
       </c>
       <c r="K57" s="3">
         <v>665000</v>
@@ -2270,25 +2270,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2016200</v>
+        <v>2012200</v>
       </c>
       <c r="E58" s="3">
-        <v>2916100</v>
+        <v>2910200</v>
       </c>
       <c r="F58" s="3">
-        <v>2061600</v>
+        <v>2057500</v>
       </c>
       <c r="G58" s="3">
-        <v>3045100</v>
+        <v>3039000</v>
       </c>
       <c r="H58" s="3">
-        <v>2680100</v>
+        <v>2674700</v>
       </c>
       <c r="I58" s="3">
-        <v>2167300</v>
+        <v>2162900</v>
       </c>
       <c r="J58" s="3">
-        <v>2187400</v>
+        <v>2183000</v>
       </c>
       <c r="K58" s="3">
         <v>2432400</v>
@@ -2305,25 +2305,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3495000</v>
+        <v>3488000</v>
       </c>
       <c r="E59" s="3">
-        <v>1773100</v>
+        <v>1769500</v>
       </c>
       <c r="F59" s="3">
-        <v>3371800</v>
+        <v>3365000</v>
       </c>
       <c r="G59" s="3">
-        <v>1625300</v>
+        <v>1622000</v>
       </c>
       <c r="H59" s="3">
-        <v>3297300</v>
+        <v>3290600</v>
       </c>
       <c r="I59" s="3">
-        <v>3373100</v>
+        <v>3366300</v>
       </c>
       <c r="J59" s="3">
-        <v>3716100</v>
+        <v>3708600</v>
       </c>
       <c r="K59" s="3">
         <v>3559300</v>
@@ -2340,25 +2340,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6542600</v>
+        <v>6529500</v>
       </c>
       <c r="E60" s="3">
-        <v>7257700</v>
+        <v>7243200</v>
       </c>
       <c r="F60" s="3">
-        <v>6287200</v>
+        <v>6274600</v>
       </c>
       <c r="G60" s="3">
-        <v>6910200</v>
+        <v>6896400</v>
       </c>
       <c r="H60" s="3">
-        <v>6757900</v>
+        <v>6744300</v>
       </c>
       <c r="I60" s="3">
-        <v>6237900</v>
+        <v>6225400</v>
       </c>
       <c r="J60" s="3">
-        <v>6543900</v>
+        <v>6530800</v>
       </c>
       <c r="K60" s="3">
         <v>6656700</v>
@@ -2375,25 +2375,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8269700</v>
+        <v>8253100</v>
       </c>
       <c r="E61" s="3">
-        <v>7574700</v>
+        <v>7559500</v>
       </c>
       <c r="F61" s="3">
-        <v>7189000</v>
+        <v>7174600</v>
       </c>
       <c r="G61" s="3">
-        <v>7085900</v>
+        <v>7071700</v>
       </c>
       <c r="H61" s="3">
-        <v>8626900</v>
+        <v>8609600</v>
       </c>
       <c r="I61" s="3">
-        <v>9802300</v>
+        <v>9782600</v>
       </c>
       <c r="J61" s="3">
-        <v>10212700</v>
+        <v>10192200</v>
       </c>
       <c r="K61" s="3">
         <v>11010700</v>
@@ -2410,25 +2410,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2829800</v>
+        <v>2824200</v>
       </c>
       <c r="E62" s="3">
-        <v>2707900</v>
+        <v>2702500</v>
       </c>
       <c r="F62" s="3">
-        <v>2505700</v>
+        <v>2500700</v>
       </c>
       <c r="G62" s="3">
-        <v>2466800</v>
+        <v>2461800</v>
       </c>
       <c r="H62" s="3">
-        <v>2281400</v>
+        <v>2276800</v>
       </c>
       <c r="I62" s="3">
-        <v>2227600</v>
+        <v>2223100</v>
       </c>
       <c r="J62" s="3">
-        <v>2210100</v>
+        <v>2205600</v>
       </c>
       <c r="K62" s="3">
         <v>2291500</v>
@@ -2550,25 +2550,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19203900</v>
+        <v>19165400</v>
       </c>
       <c r="E66" s="3">
-        <v>19116400</v>
+        <v>19078100</v>
       </c>
       <c r="F66" s="3">
-        <v>16946600</v>
+        <v>16912600</v>
       </c>
       <c r="G66" s="3">
-        <v>17402300</v>
+        <v>17367400</v>
       </c>
       <c r="H66" s="3">
-        <v>18111600</v>
+        <v>18075200</v>
       </c>
       <c r="I66" s="3">
-        <v>18711200</v>
+        <v>18673700</v>
       </c>
       <c r="J66" s="3">
-        <v>19403600</v>
+        <v>19364700</v>
       </c>
       <c r="K66" s="3">
         <v>20410800</v>
@@ -2740,25 +2740,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7981900</v>
+        <v>7965900</v>
       </c>
       <c r="E72" s="3">
-        <v>7830800</v>
+        <v>7815100</v>
       </c>
       <c r="F72" s="3">
-        <v>8032400</v>
+        <v>8016300</v>
       </c>
       <c r="G72" s="3">
-        <v>7871000</v>
+        <v>7855200</v>
       </c>
       <c r="H72" s="3">
-        <v>6581500</v>
+        <v>6568300</v>
       </c>
       <c r="I72" s="3">
-        <v>6531600</v>
+        <v>6518500</v>
       </c>
       <c r="J72" s="3">
-        <v>6497300</v>
+        <v>6484200</v>
       </c>
       <c r="K72" s="3">
         <v>6796300</v>
@@ -2880,25 +2880,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9988400</v>
+        <v>9968300</v>
       </c>
       <c r="E76" s="3">
-        <v>9832100</v>
+        <v>9812400</v>
       </c>
       <c r="F76" s="3">
-        <v>10040900</v>
+        <v>10020700</v>
       </c>
       <c r="G76" s="3">
-        <v>10379300</v>
+        <v>10358500</v>
       </c>
       <c r="H76" s="3">
-        <v>9457400</v>
+        <v>9438400</v>
       </c>
       <c r="I76" s="3">
-        <v>9401000</v>
+        <v>9382100</v>
       </c>
       <c r="J76" s="3">
-        <v>9382800</v>
+        <v>9364000</v>
       </c>
       <c r="K76" s="3">
         <v>9733600</v>
@@ -2990,25 +2990,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>689100</v>
+        <v>687800</v>
       </c>
       <c r="E81" s="3">
-        <v>560800</v>
+        <v>559700</v>
       </c>
       <c r="F81" s="3">
-        <v>641800</v>
+        <v>640500</v>
       </c>
       <c r="G81" s="3">
-        <v>452500</v>
+        <v>451600</v>
       </c>
       <c r="H81" s="3">
-        <v>492100</v>
+        <v>491100</v>
       </c>
       <c r="I81" s="3">
-        <v>711800</v>
+        <v>710400</v>
       </c>
       <c r="J81" s="3">
-        <v>440800</v>
+        <v>440000</v>
       </c>
       <c r="K81" s="3">
         <v>753700</v>
@@ -3250,25 +3250,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2551700</v>
+        <v>2546600</v>
       </c>
       <c r="E89" s="3">
-        <v>1858000</v>
+        <v>1854300</v>
       </c>
       <c r="F89" s="3">
-        <v>2595100</v>
+        <v>2589900</v>
       </c>
       <c r="G89" s="3">
-        <v>2104400</v>
+        <v>2100200</v>
       </c>
       <c r="H89" s="3">
-        <v>2455800</v>
+        <v>2450800</v>
       </c>
       <c r="I89" s="3">
-        <v>2232100</v>
+        <v>2227600</v>
       </c>
       <c r="J89" s="3">
-        <v>2772800</v>
+        <v>2767200</v>
       </c>
       <c r="K89" s="3">
         <v>1808400</v>
@@ -3405,25 +3405,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1157200</v>
+        <v>-1154900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2700800</v>
+        <v>-2695400</v>
       </c>
       <c r="F94" s="3">
-        <v>-954900</v>
+        <v>-953000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1246000</v>
+        <v>-1243500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1015900</v>
+        <v>-1013800</v>
       </c>
       <c r="I94" s="3">
-        <v>-503700</v>
+        <v>-502700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1143000</v>
+        <v>-1140700</v>
       </c>
       <c r="K94" s="3">
         <v>-802600</v>
@@ -3455,25 +3455,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-636600</v>
+        <v>-635400</v>
       </c>
       <c r="E96" s="3">
-        <v>-636600</v>
+        <v>-635400</v>
       </c>
       <c r="F96" s="3">
-        <v>-607500</v>
+        <v>-606200</v>
       </c>
       <c r="G96" s="3">
-        <v>-616500</v>
+        <v>-615300</v>
       </c>
       <c r="H96" s="3">
-        <v>-616500</v>
+        <v>-615300</v>
       </c>
       <c r="I96" s="3">
-        <v>-616500</v>
+        <v>-615300</v>
       </c>
       <c r="J96" s="3">
-        <v>-617200</v>
+        <v>-615900</v>
       </c>
       <c r="K96" s="3">
         <v>-629300</v>
@@ -3595,25 +3595,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1469700</v>
+        <v>-1466700</v>
       </c>
       <c r="E100" s="3">
-        <v>841500</v>
+        <v>839800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2046000</v>
+        <v>-2041900</v>
       </c>
       <c r="G100" s="3">
-        <v>-528400</v>
+        <v>-527300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1555900</v>
+        <v>-1552800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1190300</v>
+        <v>-1187900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1782200</v>
+        <v>-1778600</v>
       </c>
       <c r="K100" s="3">
         <v>-919100</v>
@@ -3636,7 +3636,7 @@
         <v>2600</v>
       </c>
       <c r="F101" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="G101" s="3">
         <v>9100</v>
@@ -3665,25 +3665,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-71300</v>
+        <v>-71200</v>
       </c>
       <c r="E102" s="3">
         <v>1300</v>
       </c>
       <c r="F102" s="3">
-        <v>-394200</v>
+        <v>-393400</v>
       </c>
       <c r="G102" s="3">
-        <v>339100</v>
+        <v>338400</v>
       </c>
       <c r="H102" s="3">
-        <v>-110200</v>
+        <v>-110000</v>
       </c>
       <c r="I102" s="3">
-        <v>516000</v>
+        <v>515000</v>
       </c>
       <c r="J102" s="3">
-        <v>-154300</v>
+        <v>-154000</v>
       </c>
       <c r="K102" s="3">
         <v>88000</v>
